--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -490,7 +490,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Current Oct 25 Oct 22, 2025</t>
+          <t>Current Oct 25 Oct 23, 2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Current Oct 25 Oct 22, 2025</t>
+          <t>Current Oct 25 Oct 23, 2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1188,12 +1188,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Current Oct 25 Oct 22, 2025</t>
+          <t>Current Oct 25 Oct 23, 2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1539,12 +1539,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Current Oct 25 Oct 22, 2025</t>
+          <t>Current Oct 25 Oct 23, 2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,329 +428,347 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Date_1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>EBITDA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>EBITDA</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Debt / Equity Ratio</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Debt / Equity Ratio</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Inventory Turnover</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Current Ratio</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>Altman Z-Score</t>
         </is>
       </c>
-      <c r="B1" t="n">
-        <v/>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Piotroski F-Score</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Piotroski F-Score</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+          <t>Current Oct 25 Oct 23 2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FY 2024 Dec 24 Dec 31 2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Date_1</t>
+          <t>FY 2023 Dec 23 Dec 31 2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EBITDA</t>
+          <t>15.43</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Debt / Equity Ratio</t>
-        </is>
-      </c>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Inventory Turnover</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Current Ratio</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ticker</t>
-        </is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Current Oct 25 Oct 23, 2025</t>
+          <t>FY 2022 Dec 22 Dec 31 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FY 2024 Dec 24 Dec 31, 2024</t>
+          <t>FY 2021 Dec 21 Dec 31 2021</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>68.00</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FY 2023 Dec 23 Dec 31, 2023</t>
+          <t>FY 2020 Dec 20 Dec 31 2020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15.43</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.46</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FY 2022 Dec 22 Dec 31, 2022</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
+          <t>2015 - 2019 2015 - 2019</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>FY 2021 Dec 21 Dec 31, 2021</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>AA</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>FY 2020 Dec 20 Dec 31, 2020</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>65.46</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>AA</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2015 - 2019 2015 - 2019</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>AA</t>
-        </is>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,333 +793,365 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Date_1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>EBITDA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>EBITDA</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Debt / Equity Ratio</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Debt / Equity Ratio</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Inventory Turnover</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Current Ratio</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>Altman Z-Score</t>
         </is>
       </c>
-      <c r="B1" t="n">
-        <v>2.45</v>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Piotroski F-Score</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Piotroski F-Score</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+          <t>Current Oct 25 Oct 23 2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>RIO</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FY 2024 Dec 24 Dec 31 2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>RIO</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Date_1</t>
+          <t>FY 2023 Dec 23 Dec 31 2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EBITDA</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Inventory Turnover</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Current Ratio</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ticker</t>
-        </is>
+          <t>RIO</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Current Oct 25 Oct 23, 2025</t>
+          <t>FY 2022 Dec 22 Dec 31 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>RIO</t>
         </is>
+      </c>
+      <c r="I5" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FY 2024 Dec 24 Dec 31, 2024</t>
+          <t>FY 2021 Dec 21 Dec 31 2021</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>RIO</t>
         </is>
+      </c>
+      <c r="I6" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FY 2023 Dec 23 Dec 31, 2023</t>
+          <t>FY 2020 Dec 20 Dec 31 2020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>RIO</t>
         </is>
+      </c>
+      <c r="I7" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FY 2022 Dec 22 Dec 31, 2022</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
+          <t>2015 - 2019 2015 - 2019</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>RIO</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>FY 2021 Dec 21 Dec 31, 2021</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>RIO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>FY 2020 Dec 20 Dec 31, 2020</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>RIO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2015 - 2019 2015 - 2019</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>RIO</t>
-        </is>
+      <c r="I8" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1115,7 +1165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,333 +1176,351 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Date_1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>EBITDA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>EBITDA</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Debt / Equity Ratio</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Debt / Equity Ratio</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Inventory Turnover</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Current Ratio</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>Altman Z-Score</t>
         </is>
       </c>
-      <c r="B1" t="n">
-        <v/>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Piotroski F-Score</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Piotroski F-Score</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+          <t>Current Oct 25 Oct 23 2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FY 2024 Dec 24 Dec 31 2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Date_1</t>
+          <t>FY 2023 Dec 23 Dec 31 2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EBITDA</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Inventory Turnover</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Current Ratio</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ticker</t>
-        </is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Current Oct 25 Oct 23, 2025</t>
+          <t>FY 2022 Dec 22 Dec 31 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12.19</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>RS</t>
         </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FY 2024 Dec 24 Dec 31, 2024</t>
+          <t>FY 2021 Dec 21 Dec 31 2021</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10.85</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>RS</t>
         </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FY 2023 Dec 23 Dec 31, 2023</t>
+          <t>FY 2020 Dec 20 Dec 31 2020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>5.08</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>5.66</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>RS</t>
         </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FY 2022 Dec 22 Dec 31, 2022</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
+          <t>2015 - 2019 2015 - 2019</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>RS</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>FY 2021 Dec 21 Dec 31, 2021</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>RS</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>FY 2020 Dec 20 Dec 31, 2020</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>RS</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2015 - 2019 2015 - 2019</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>RS</t>
-        </is>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1466,7 +1534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1477,90 +1545,210 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Date_1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>EBITDA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>EBITDA</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Debt / Equity Ratio</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Debt / Equity Ratio</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Inventory Turnover</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Current Ratio</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>Altman Z-Score</t>
         </is>
       </c>
-      <c r="B1" t="n">
-        <v/>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Piotroski F-Score</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Piotroski F-Score</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+          <t>Current Oct 25 Oct 23 2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>KALU</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FY 2024 Dec 24 Dec 31 2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>KALU</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Date_1</t>
+          <t>FY 2023 Dec 23 Dec 31 2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EBITDA</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
+          <t>15.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Inventory Turnover</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Current Ratio</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ticker</t>
-        </is>
+          <t>KALU</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Current Oct 25 Oct 23, 2025</t>
+          <t>FY 2022 Dec 22 Dec 31 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>16.45</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1572,226 +1760,124 @@
         <is>
           <t>KALU</t>
         </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FY 2024 Dec 24 Dec 31, 2024</t>
+          <t>FY 2021 Dec 21 Dec 31 2021</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>15.09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>6.62</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>51.14</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>KALU</t>
         </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FY 2023 Dec 23 Dec 31, 2023</t>
+          <t>FY 2020 Dec 20 Dec 31 2020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10.79</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>15.90</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>KALU</t>
         </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FY 2022 Dec 22 Dec 31, 2022</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>16.45</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
+          <t>2015 - 2019 2015 - 2019</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.84</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>KALU</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>FY 2021 Dec 21 Dec 31, 2021</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>15.09</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>51.14</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.44</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>KALU</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>FY 2020 Dec 20 Dec 31, 2020</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>12.32</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>KALU</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2015 - 2019 2015 - 2019</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>KALU</t>
-        </is>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,329 +1902,361 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Date_1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>EBITDA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>EBITDA</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Debt / Equity Ratio</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Debt / Equity Ratio</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Inventory Turnover</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Current Ratio</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>Altman Z-Score</t>
         </is>
       </c>
-      <c r="B1" t="n">
-        <v>2.73</v>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Piotroski F-Score</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Piotroski F-Score</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+          <t>Current Oct 25 Oct 23 2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>RYI</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FY 2024 Dec 24 Dec 31 2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>RYI</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="J3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Date_1</t>
+          <t>FY 2023 Dec 23 Dec 31 2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EBITDA</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Inventory Turnover</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Current Ratio</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ticker</t>
-        </is>
+          <t>RYI</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Current Oct 25 Oct 22, 2025</t>
+          <t>FY 2022 Dec 22 Dec 31 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20.38</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>RYI</t>
         </is>
+      </c>
+      <c r="I5" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FY 2024 Dec 24 Dec 31, 2024</t>
+          <t>FY 2021 Dec 21 Dec 31 2021</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13.08</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>RYI</t>
         </is>
+      </c>
+      <c r="I6" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FY 2023 Dec 23 Dec 31, 2023</t>
+          <t>FY 2020 Dec 20 Dec 31 2020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>RYI</t>
         </is>
+      </c>
+      <c r="I7" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FY 2022 Dec 22 Dec 31, 2022</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
+          <t>2015 - 2019 2015 - 2019</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>RYI</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>FY 2021 Dec 21 Dec 31, 2021</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>RYI</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>FY 2020 Dec 20 Dec 31, 2020</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>11.02</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>RYI</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2015 - 2019 2015 - 2019</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>RYI</t>
-        </is>
+      <c r="I8" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,40 +438,30 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>EBITDA</t>
+          <t>Debt / Equity Ratio</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
+          <t>Inventory Turnover</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
+          <t>Current Ratio</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Inventory Turnover</t>
+          <t>Ticker</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Current Ratio</t>
+          <t>Altman Z-Score</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
-        <is>
-          <t>Ticker</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Altman Z-Score</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Piotroski F-Score</t>
         </is>
@@ -480,7 +470,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Current Oct 25 Oct 23 2025</t>
+          <t>Current Oct 25 Oct 23, 2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -490,43 +480,33 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FY 2024 Dec 24 Dec 31 2024</t>
+          <t>FY 2024 Dec 24 Dec 31, 2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,43 +516,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>68.00</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FY 2023 Dec 23 Dec 31 2023</t>
+          <t>FY 2023 Dec 23 Dec 31, 2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -582,39 +552,33 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FY 2022 Dec 22 Dec 31 2022</t>
+          <t>FY 2022 Dec 22 Dec 31, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -624,43 +588,33 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FY 2021 Dec 21 Dec 31 2021</t>
+          <t>FY 2021 Dec 21 Dec 31, 2021</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -670,43 +624,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FY 2020 Dec 20 Dec 31 2020</t>
+          <t>FY 2020 Dec 20 Dec 31, 2020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -716,36 +660,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>65.46</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -759,15 +693,13 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>AA</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -782,7 +714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,40 +735,30 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>EBITDA</t>
+          <t>Debt / Equity Ratio</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
+          <t>Inventory Turnover</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
+          <t>Current Ratio</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Inventory Turnover</t>
+          <t>Ticker</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Current Ratio</t>
+          <t>Altman Z-Score</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
-        <is>
-          <t>Ticker</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Altman Z-Score</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Piotroski F-Score</t>
         </is>
@@ -845,7 +767,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Current Oct 25 Oct 23 2025</t>
+          <t>Current Oct 25 Oct 23, 2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -855,45 +777,35 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>RIO</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="G2" t="n">
         <v>2.45</v>
       </c>
-      <c r="J2" t="n">
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FY 2024 Dec 24 Dec 31 2024</t>
+          <t>FY 2024 Dec 24 Dec 31, 2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -903,45 +815,35 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>RIO</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="G3" t="n">
         <v>2.45</v>
       </c>
-      <c r="J3" t="n">
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FY 2023 Dec 23 Dec 31 2023</t>
+          <t>FY 2023 Dec 23 Dec 31, 2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -951,45 +853,35 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>RIO</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="G4" t="n">
         <v>2.45</v>
       </c>
-      <c r="J4" t="n">
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FY 2022 Dec 22 Dec 31 2022</t>
+          <t>FY 2022 Dec 22 Dec 31, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -999,45 +891,35 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>RIO</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="G5" t="n">
         <v>2.45</v>
       </c>
-      <c r="J5" t="n">
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FY 2021 Dec 21 Dec 31 2021</t>
+          <t>FY 2021 Dec 21 Dec 31, 2021</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1047,45 +929,35 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>RIO</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="G6" t="n">
         <v>2.45</v>
       </c>
-      <c r="J6" t="n">
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FY 2020 Dec 20 Dec 31 2020</t>
+          <t>FY 2020 Dec 20 Dec 31, 2020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1095,38 +967,28 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
           <t>RIO</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="G7" t="n">
         <v>2.45</v>
       </c>
-      <c r="J7" t="n">
+      <c r="H7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1140,17 +1002,15 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>RIO</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="G8" t="n">
         <v>2.45</v>
       </c>
-      <c r="J8" t="n">
+      <c r="H8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1165,7 +1025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1186,40 +1046,30 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>EBITDA</t>
+          <t>Debt / Equity Ratio</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
+          <t>Inventory Turnover</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
+          <t>Current Ratio</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Inventory Turnover</t>
+          <t>Ticker</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Current Ratio</t>
+          <t>Altman Z-Score</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
-        <is>
-          <t>Ticker</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Altman Z-Score</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Piotroski F-Score</t>
         </is>
@@ -1228,7 +1078,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Current Oct 25 Oct 23 2025</t>
+          <t>Current Oct 25 Oct 23, 2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1238,43 +1088,33 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>RS</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FY 2024 Dec 24 Dec 31 2024</t>
+          <t>FY 2024 Dec 24 Dec 31, 2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1284,43 +1124,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>RS</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FY 2023 Dec 23 Dec 31 2023</t>
+          <t>FY 2023 Dec 23 Dec 31, 2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1330,43 +1160,33 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>RS</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FY 2022 Dec 22 Dec 31 2022</t>
+          <t>FY 2022 Dec 22 Dec 31, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1376,43 +1196,33 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>RS</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FY 2021 Dec 21 Dec 31 2021</t>
+          <t>FY 2021 Dec 21 Dec 31, 2021</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1422,43 +1232,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>RS</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FY 2020 Dec 20 Dec 31 2020</t>
+          <t>FY 2020 Dec 20 Dec 31, 2020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1468,36 +1268,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
           <t>RS</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1511,15 +1301,13 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>RS</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
+      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1534,7 +1322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1555,40 +1343,30 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>EBITDA</t>
+          <t>Debt / Equity Ratio</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
+          <t>Inventory Turnover</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
+          <t>Current Ratio</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Inventory Turnover</t>
+          <t>Ticker</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Current Ratio</t>
+          <t>Altman Z-Score</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
-        <is>
-          <t>Ticker</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Altman Z-Score</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Piotroski F-Score</t>
         </is>
@@ -1597,7 +1375,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Current Oct 25 Oct 23 2025</t>
+          <t>Current Oct 25 Oct 23, 2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1607,39 +1385,33 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>KALU</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FY 2024 Dec 24 Dec 31 2024</t>
+          <t>FY 2024 Dec 24 Dec 31, 2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1649,39 +1421,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>KALU</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FY 2023 Dec 23 Dec 31 2023</t>
+          <t>FY 2023 Dec 23 Dec 31, 2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1691,43 +1457,33 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15.90</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>KALU</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FY 2022 Dec 22 Dec 31 2022</t>
+          <t>FY 2022 Dec 22 Dec 31, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1737,39 +1493,33 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7.39</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.84</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>KALU</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FY 2021 Dec 21 Dec 31 2021</t>
+          <t>FY 2021 Dec 21 Dec 31, 2021</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1779,43 +1529,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>51.14</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.44</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>KALU</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FY 2020 Dec 20 Dec 31 2020</t>
+          <t>FY 2020 Dec 20 Dec 31, 2020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1825,36 +1565,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
           <t>KALU</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1868,15 +1598,13 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>KALU</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>KALU</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
+      <c r="H8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1891,7 +1619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1912,40 +1640,30 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>EBITDA</t>
+          <t>Debt / Equity Ratio</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
+          <t>Inventory Turnover</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Debt / Equity Ratio</t>
+          <t>Current Ratio</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Inventory Turnover</t>
+          <t>Ticker</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Current Ratio</t>
+          <t>Altman Z-Score</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
-        <is>
-          <t>Ticker</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Altman Z-Score</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Piotroski F-Score</t>
         </is>
@@ -1954,7 +1672,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Current Oct 25 Oct 23 2025</t>
+          <t>Current Oct 25 Oct 23, 2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1964,45 +1682,35 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>RYI</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="G2" t="n">
         <v>2.73</v>
       </c>
-      <c r="J2" t="n">
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FY 2024 Dec 24 Dec 31 2024</t>
+          <t>FY 2024 Dec 24 Dec 31, 2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2012,45 +1720,35 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>RYI</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="G3" t="n">
         <v>2.73</v>
       </c>
-      <c r="J3" t="n">
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FY 2023 Dec 23 Dec 31 2023</t>
+          <t>FY 2023 Dec 23 Dec 31, 2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2060,45 +1758,35 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>RYI</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="G4" t="n">
         <v>2.73</v>
       </c>
-      <c r="J4" t="n">
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FY 2022 Dec 22 Dec 31 2022</t>
+          <t>FY 2022 Dec 22 Dec 31, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2108,45 +1796,35 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>RYI</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="G5" t="n">
         <v>2.73</v>
       </c>
-      <c r="J5" t="n">
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FY 2021 Dec 21 Dec 31 2021</t>
+          <t>FY 2021 Dec 21 Dec 31, 2021</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2156,41 +1834,35 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>RYI</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="G6" t="n">
         <v>2.73</v>
       </c>
-      <c r="J6" t="n">
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FY 2020 Dec 20 Dec 31 2020</t>
+          <t>FY 2020 Dec 20 Dec 31, 2020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2200,38 +1872,28 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
           <t>RYI</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="G7" t="n">
         <v>2.73</v>
       </c>
-      <c r="J7" t="n">
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2245,17 +1907,15 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>RYI</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="G8" t="n">
         <v>2.73</v>
       </c>
-      <c r="J8" t="n">
+      <c r="H8" t="n">
         <v>3</v>
       </c>
     </row>

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -468,11 +468,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Current Oct 25 Oct 23, 2025</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>4.98</t>
@@ -506,7 +502,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FY 2024 Dec 24 Dec 31, 2024</t>
+          <t>202424312024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -542,7 +538,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FY 2023 Dec 23 Dec 31, 2023</t>
+          <t>202323312023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -578,7 +574,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FY 2022 Dec 22 Dec 31, 2022</t>
+          <t>202222312022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -614,7 +610,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FY 2021 Dec 21 Dec 31, 2021</t>
+          <t>202121312021</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -650,7 +646,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FY 2020 Dec 20 Dec 31, 2020</t>
+          <t>202020312020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -686,7 +682,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2015 - 2019 2015 - 2019</t>
+          <t>2015201920152019</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -765,11 +761,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Current Oct 25 Oct 23, 2025</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>7.49</t>
@@ -805,7 +797,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FY 2024 Dec 24 Dec 31, 2024</t>
+          <t>202424312024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -843,7 +835,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FY 2023 Dec 23 Dec 31, 2023</t>
+          <t>202323312023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -881,7 +873,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FY 2022 Dec 22 Dec 31, 2022</t>
+          <t>202222312022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -919,7 +911,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FY 2021 Dec 21 Dec 31, 2021</t>
+          <t>202121312021</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -957,7 +949,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FY 2020 Dec 20 Dec 31, 2020</t>
+          <t>202020312020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -995,7 +987,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2015 - 2019 2015 - 2019</t>
+          <t>2015201920152019</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -1076,14 +1068,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Current Oct 25 Oct 23, 2025</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12.19</t>
+          <t>12.11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1114,7 +1102,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FY 2024 Dec 24 Dec 31, 2024</t>
+          <t>202424312024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1150,7 +1138,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FY 2023 Dec 23 Dec 31, 2023</t>
+          <t>202323312023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1186,7 +1174,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FY 2022 Dec 22 Dec 31, 2022</t>
+          <t>202222312022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1222,7 +1210,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FY 2021 Dec 21 Dec 31, 2021</t>
+          <t>202121312021</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1258,7 +1246,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FY 2020 Dec 20 Dec 31, 2020</t>
+          <t>202020312020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1294,7 +1282,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2015 - 2019 2015 - 2019</t>
+          <t>2015201920152019</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -1373,14 +1361,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Current Oct 25 Oct 23, 2025</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1403,7 +1387,9 @@
           <t>KALU</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>2.22</v>
+      </c>
       <c r="H2" t="n">
         <v>4</v>
       </c>
@@ -1411,7 +1397,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FY 2024 Dec 24 Dec 31, 2024</t>
+          <t>202424312024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1439,7 +1425,9 @@
           <t>KALU</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>2.22</v>
+      </c>
       <c r="H3" t="n">
         <v>4</v>
       </c>
@@ -1447,7 +1435,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FY 2023 Dec 23 Dec 31, 2023</t>
+          <t>202323312023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1475,7 +1463,9 @@
           <t>KALU</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>2.22</v>
+      </c>
       <c r="H4" t="n">
         <v>4</v>
       </c>
@@ -1483,7 +1473,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FY 2022 Dec 22 Dec 31, 2022</t>
+          <t>202222312022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1511,7 +1501,9 @@
           <t>KALU</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>2.22</v>
+      </c>
       <c r="H5" t="n">
         <v>4</v>
       </c>
@@ -1519,7 +1511,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FY 2021 Dec 21 Dec 31, 2021</t>
+          <t>202121312021</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1547,7 +1539,9 @@
           <t>KALU</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>2.22</v>
+      </c>
       <c r="H6" t="n">
         <v>4</v>
       </c>
@@ -1555,7 +1549,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FY 2020 Dec 20 Dec 31, 2020</t>
+          <t>202020312020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1583,7 +1577,9 @@
           <t>KALU</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>2.22</v>
+      </c>
       <c r="H7" t="n">
         <v>4</v>
       </c>
@@ -1591,7 +1587,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2015 - 2019 2015 - 2019</t>
+          <t>2015201920152019</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -1603,7 +1599,9 @@
           <t>KALU</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>2.22</v>
+      </c>
       <c r="H8" t="n">
         <v>4</v>
       </c>
@@ -1670,11 +1668,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Current Oct 25 Oct 23, 2025</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>20.38</t>
@@ -1710,7 +1704,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FY 2024 Dec 24 Dec 31, 2024</t>
+          <t>202424312024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1748,7 +1742,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FY 2023 Dec 23 Dec 31, 2023</t>
+          <t>202323312023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1786,7 +1780,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FY 2022 Dec 22 Dec 31, 2022</t>
+          <t>202222312022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1824,7 +1818,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FY 2021 Dec 21 Dec 31, 2021</t>
+          <t>202121312021</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1862,7 +1856,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FY 2020 Dec 20 Dec 31, 2020</t>
+          <t>202020312020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1900,7 +1894,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2015 - 2019 2015 - 2019</t>
+          <t>2015201920152019</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -468,7 +468,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025/12/31</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>4.98</t>
@@ -502,7 +506,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>202424312024</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,7 +542,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>202323312023</t>
+          <t>2023/12/31</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -574,7 +578,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>202222312022</t>
+          <t>2022/12/31</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -610,7 +614,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>202121312021</t>
+          <t>2021/12/31</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -646,7 +650,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>202020312020</t>
+          <t>2020/12/31</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -682,13 +686,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2015201920152019</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>2015/12/31</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>AA</t>
@@ -761,7 +781,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025/12/31</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>7.49</t>
@@ -797,7 +821,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>202424312024</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -835,7 +859,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>202323312023</t>
+          <t>2023/12/31</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -873,7 +897,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>202222312022</t>
+          <t>2022/12/31</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -911,7 +935,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>202121312021</t>
+          <t>2021/12/31</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -949,7 +973,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>202020312020</t>
+          <t>2020/12/31</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -987,13 +1011,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2015201920152019</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>2015/12/31</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>RIO</t>
@@ -1068,7 +1108,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025/12/31</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>12.11</t>
@@ -1102,7 +1146,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>202424312024</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1138,7 +1182,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>202323312023</t>
+          <t>2023/12/31</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1174,7 +1218,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>202222312022</t>
+          <t>2022/12/31</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1210,7 +1254,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>202121312021</t>
+          <t>2021/12/31</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1246,7 +1290,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>202020312020</t>
+          <t>2020/12/31</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1282,13 +1326,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2015201920152019</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>2015/12/31</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>RS</t>
@@ -1361,7 +1421,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025/12/31</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>9.94</t>
@@ -1397,7 +1461,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>202424312024</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1435,7 +1499,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>202323312023</t>
+          <t>2023/12/31</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1473,7 +1537,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>202222312022</t>
+          <t>2022/12/31</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1511,7 +1575,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>202121312021</t>
+          <t>2021/12/31</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1549,7 +1613,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>202020312020</t>
+          <t>2020/12/31</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1587,13 +1651,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2015201920152019</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>2015/12/31</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>KALU</t>
@@ -1668,7 +1748,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025/12/31</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>20.38</t>
@@ -1704,7 +1788,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>202424312024</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1742,7 +1826,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>202323312023</t>
+          <t>2023/12/31</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1780,7 +1864,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>202222312022</t>
+          <t>2022/12/31</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1818,7 +1902,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>202121312021</t>
+          <t>2021/12/31</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1856,7 +1940,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>202020312020</t>
+          <t>2020/12/31</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1894,13 +1978,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2015201920152019</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>2015/12/31</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>RYI</t>

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -9,9 +9,10 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alcoa" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rio Tinto" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reliance Steel &amp; Aluminum" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kaiser Aluminum" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ryerson Holding" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Norsk Hydro" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reliance Steel &amp; Aluminum" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kaiser Aluminum" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ryerson Holding" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -498,7 +499,9 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>1.75</v>
+      </c>
       <c r="H2" t="n">
         <v>6</v>
       </c>
@@ -534,7 +537,9 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>1.75</v>
+      </c>
       <c r="H3" t="n">
         <v>6</v>
       </c>
@@ -570,7 +575,9 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>1.75</v>
+      </c>
       <c r="H4" t="n">
         <v>6</v>
       </c>
@@ -606,7 +613,9 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>1.75</v>
+      </c>
       <c r="H5" t="n">
         <v>6</v>
       </c>
@@ -642,7 +651,9 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>1.75</v>
+      </c>
       <c r="H6" t="n">
         <v>6</v>
       </c>
@@ -678,7 +689,9 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>1.75</v>
+      </c>
       <c r="H7" t="n">
         <v>6</v>
       </c>
@@ -714,7 +727,9 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>1.75</v>
+      </c>
       <c r="H8" t="n">
         <v>6</v>
       </c>
@@ -788,7 +803,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1115,32 +1130,34 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12.11</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>RS</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>NHY</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>3.26</v>
+      </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1151,32 +1168,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10.85</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>RS</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>NHY</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3.26</v>
+      </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1187,32 +1206,34 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>RS</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>NHY</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3.26</v>
+      </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1223,32 +1244,34 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>RS</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>NHY</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.26</v>
+      </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1259,32 +1282,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>RS</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>NHY</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3.26</v>
+      </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1295,32 +1320,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>RS</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>NHY</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3.26</v>
+      </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1351,12 +1378,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>RS</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>NHY</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.26</v>
+      </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1428,34 +1457,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>12.11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>KALU</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>2.22</v>
-      </c>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1466,34 +1493,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>10.85</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>KALU</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2.22</v>
-      </c>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1504,34 +1529,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10.79</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>KALU</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.22</v>
-      </c>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1542,34 +1565,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16.45</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>KALU</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.22</v>
-      </c>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1580,34 +1601,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15.09</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.44</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>KALU</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.22</v>
-      </c>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1618,34 +1637,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>KALU</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.22</v>
-      </c>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1676,14 +1693,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>KALU</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.22</v>
-      </c>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1755,7 +1770,334 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20.38</t>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>KALU</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>KALU</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023/12/31</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>KALU</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2022/12/31</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>16.45</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>KALU</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2021/12/31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>KALU</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020/12/31</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>KALU</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2015/12/31</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>KALU</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date_1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>EBITDA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Debt / Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Inventory Turnover</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Current Ratio</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Altman Z-Score</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Piotroski F-Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025/12/31</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20.64</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -471,7 +471,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/31</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -798,7 +798,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/31</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/31</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1452,7 +1452,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/31</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1765,7 +1765,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/31</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2092,7 +2092,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/31</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -1135,17 +1135,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12.11</t>
+          <t>12.13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1480,7 +1480,9 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>5.92</v>
+      </c>
       <c r="H2" t="n">
         <v>5</v>
       </c>
@@ -1516,7 +1518,9 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>5.92</v>
+      </c>
       <c r="H3" t="n">
         <v>5</v>
       </c>
@@ -1552,7 +1556,9 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>5.92</v>
+      </c>
       <c r="H4" t="n">
         <v>5</v>
       </c>
@@ -1588,7 +1594,9 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>5.92</v>
+      </c>
       <c r="H5" t="n">
         <v>5</v>
       </c>
@@ -1624,7 +1632,9 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>5.92</v>
+      </c>
       <c r="H6" t="n">
         <v>5</v>
       </c>
@@ -1660,7 +1670,9 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>5.92</v>
+      </c>
       <c r="H7" t="n">
         <v>5</v>
       </c>
@@ -1696,7 +1708,9 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>5.92</v>
+      </c>
       <c r="H8" t="n">
         <v>5</v>
       </c>
@@ -1770,7 +1784,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>9.84</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2097,7 +2111,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20.64</t>
+          <t>20.66</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -471,12 +471,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -798,12 +798,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1125,12 +1125,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
         <v>7</v>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
         <v>7</v>
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="H4" t="n">
         <v>7</v>
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
         <v>7</v>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="H6" t="n">
         <v>7</v>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="H7" t="n">
         <v>7</v>
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
         <v>7</v>
@@ -1452,12 +1452,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12.13</t>
+          <t>12.27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1779,17 +1779,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9.84</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1811,7 +1811,7 @@
         <v>2.22</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1849,7 +1849,7 @@
         <v>2.22</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1887,7 +1887,7 @@
         <v>2.22</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1925,7 +1925,7 @@
         <v>2.22</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1963,7 +1963,7 @@
         <v>2.22</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2001,7 +2001,7 @@
         <v>2.22</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2039,7 +2039,7 @@
         <v>2.22</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2106,12 +2106,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20.66</t>
+          <t>20.57</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -471,7 +471,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/25</t>
+          <t>2025/10/26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -798,7 +798,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/25</t>
+          <t>2025/10/26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/25</t>
+          <t>2025/10/26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1452,7 +1452,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/25</t>
+          <t>2025/10/26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1779,7 +1779,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/25</t>
+          <t>2025/10/26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2106,7 +2106,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/25</t>
+          <t>2025/10/26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -471,7 +471,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/26</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -798,7 +798,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/26</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/26</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1452,7 +1452,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/26</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1779,7 +1779,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/26</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2106,7 +2106,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/26</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -471,12 +471,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -798,12 +798,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1452,12 +1452,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12.27</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1779,12 +1779,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2106,12 +2106,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20.57</t>
+          <t>20.35</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -471,12 +471,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -798,12 +798,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>7.69</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1125,12 +1125,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1452,12 +1452,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>12.39</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1779,12 +1779,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2106,12 +2106,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20.35</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2134,9 +2134,7 @@
           <t>RYI</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>2.73</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
         <v>3</v>
       </c>
@@ -2172,9 +2170,7 @@
           <t>RYI</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>2.73</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
         <v>3</v>
       </c>
@@ -2210,9 +2206,7 @@
           <t>RYI</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>2.73</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>3</v>
       </c>
@@ -2248,9 +2242,7 @@
           <t>RYI</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>2.73</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>3</v>
       </c>
@@ -2286,9 +2278,7 @@
           <t>RYI</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>2.73</v>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
         <v>3</v>
       </c>
@@ -2324,9 +2314,7 @@
           <t>RYI</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>2.73</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
         <v>3</v>
       </c>
@@ -2362,9 +2350,7 @@
           <t>RYI</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>2.73</v>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
         <v>3</v>
       </c>

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -13,6 +13,13 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reliance Steel &amp; Aluminum" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kaiser Aluminum" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ryerson Holding" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ultra Clean Holdings" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Foxconn" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ferrotec Holdings" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Benchmark Electronics" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Celestica" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Flex Ltd" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MKS Instruments" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -471,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -733,6 +740,1138 @@
       <c r="H8" t="n">
         <v>6</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date_1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>EBITDA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Debt / Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Inventory Turnover</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Current Ratio</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Altman Z-Score</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Piotroski F-Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025/10/30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>BHE</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>BHE</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023/12/31</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>BHE</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2022/12/31</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>BHE</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2021/12/31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>BHE</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020/12/31</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>BHE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2015/12/31</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>BHE</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date_1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Debt / Equity Ratio</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Altman Z-Score</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Piotroski F-Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025/10/30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CLS</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CLS</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023/12/31</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CLS</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2022/12/31</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CLS</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2021/12/31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CLS</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020/12/31</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CLS</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019/12/31</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CLS</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date_1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>EBITDA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Debt / Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Inventory Turnover</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Current Ratio</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Altman Z-Score</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Piotroski F-Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025/10/30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>FLEX</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025/12/31</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>FLEX</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>FLEX</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023/12/31</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>FLEX</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2022/12/31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>FLEX</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2021/12/31</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>FLEX</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2016/12/31</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>FLEX</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date_1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>EBITDA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Debt / Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Inventory Turnover</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Current Ratio</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Altman Z-Score</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Piotroski F-Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025/10/30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MKS</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MKS</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023/12/31</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>14.25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MKS</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2022/12/31</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MKS</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2021/12/31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MKS</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020/12/31</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>15.46</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MKS</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2015/12/31</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MKS</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -798,12 +1937,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7.69</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1125,12 +2264,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1452,12 +2591,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12.39</t>
+          <t>12.44</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1779,12 +2918,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2106,12 +3245,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>25.73</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2134,7 +3273,9 @@
           <t>RYI</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>2.75</v>
+      </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
@@ -2170,7 +3311,9 @@
           <t>RYI</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>2.75</v>
+      </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
@@ -2206,7 +3349,9 @@
           <t>RYI</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>2.75</v>
+      </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
@@ -2242,7 +3387,9 @@
           <t>RYI</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>2.75</v>
+      </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
@@ -2278,7 +3425,9 @@
           <t>RYI</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>2.75</v>
+      </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
@@ -2314,7 +3463,9 @@
           <t>RYI</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>2.75</v>
+      </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
@@ -2350,9 +3501,432 @@
           <t>RYI</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>2.75</v>
+      </c>
       <c r="H8" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date_1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>EBITDA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Debt / Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Inventory Turnover</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Current Ratio</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Altman Z-Score</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Piotroski F-Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025/10/30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ULTR</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ULTR</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023/12/31</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>18.45</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ULTR</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2022/12/31</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ULTR</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2021/12/31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ULTR</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020/12/31</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ULTR</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2015/12/31</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ULTR</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date_1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>EBITDA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Debt / Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Inventory Turnover</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Current Ratio</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Altman Z-Score</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Piotroski F-Score</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date_1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>EBITDA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Debt / Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Inventory Turnover</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Current Ratio</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Altman Z-Score</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Piotroski F-Score</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -2596,7 +2596,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>12.53</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -805,12 +805,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11.24</t>
+          <t>11.19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1117,7 +1117,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1325,12 +1325,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13.89</t>
+          <t>13.48</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1638,12 +1638,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15.22</t>
+          <t>15.07</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1937,12 +1937,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2264,12 +2264,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2591,12 +2591,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12.53</t>
+          <t>12.44</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2918,12 +2918,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9.76</t>
+          <t>9.52</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3245,12 +3245,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>25.73</t>
+          <t>25.20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3572,12 +3572,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12.05</t>
+          <t>11.49</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,39 +741,39 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2015/12/31</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>RIO</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -784,27 +784,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -827,27 +827,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2023/12/31</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -870,27 +870,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023/12/31</t>
+          <t>2022/12/31</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -913,27 +913,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022/12/31</t>
+          <t>2021/12/31</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -956,27 +956,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2021/12/31</t>
+          <t>2020/12/31</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -999,39 +999,39 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2020/12/31</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>RIO</t>
+          <t>NHY</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1042,39 +1042,39 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2015/12/31</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>RIO</t>
+          <t>NHY</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1085,12 +1085,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2023/12/31</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1128,27 +1128,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2022/12/31</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1171,27 +1171,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2023/12/31</t>
+          <t>2021/12/31</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1214,27 +1214,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022/12/31</t>
+          <t>2020/12/31</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1257,156 +1257,156 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2021/12/31</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>12.49</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NHY</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.25</v>
+        <v>5.92</v>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>mills</t>
+          <t>distributor</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020/12/31</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>10.85</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NHY</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.25</v>
+        <v>5.92</v>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>mills</t>
+          <t>distributor</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2015/12/31</t>
+          <t>2023/12/31</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NHY</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.25</v>
+        <v>5.92</v>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>mills</t>
+          <t>distributor</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2022/12/31</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12.49</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1429,27 +1429,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2021/12/31</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>10.85</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1472,27 +1472,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2023/12/31</t>
+          <t>2020/12/31</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>5.08</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>5.66</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1515,39 +1515,39 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2022/12/31</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>KALU</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5.92</v>
+        <v>2.22</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1558,39 +1558,39 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2021/12/31</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>KALU</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.92</v>
+        <v>2.22</v>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1601,39 +1601,39 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020/12/31</t>
+          <t>2023/12/31</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>KALU</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.92</v>
+        <v>2.22</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1644,39 +1644,39 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2015/12/31</t>
+          <t>2022/12/31</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>16.45</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>KALU</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.92</v>
+        <v>2.22</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1687,27 +1687,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2021/12/31</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9.52</t>
+          <t>15.09</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1730,27 +1730,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2020/12/31</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1773,39 +1773,39 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2023/12/31</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>10.79</t>
+          <t>25.83</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>KALU</t>
+          <t>RYI</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.22</v>
+        <v>2.75</v>
       </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1816,39 +1816,39 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2022/12/31</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16.45</t>
+          <t>13.08</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>KALU</t>
+          <t>RYI</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.22</v>
+        <v>2.75</v>
       </c>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1859,39 +1859,39 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2021/12/31</t>
+          <t>2023/12/31</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>15.09</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>8.44</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>KALU</t>
+          <t>RYI</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.22</v>
+        <v>2.75</v>
       </c>
       <c r="H34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1902,39 +1902,39 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2020/12/31</t>
+          <t>2022/12/31</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>KALU</t>
+          <t>RYI</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.22</v>
+        <v>2.75</v>
       </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1945,39 +1945,39 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2015/12/31</t>
+          <t>2021/12/31</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>KALU</t>
+          <t>RYI</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.22</v>
+        <v>2.75</v>
       </c>
       <c r="H36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -1988,27 +1988,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2020/12/31</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>25.83</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2031,40 +2031,24 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>13.08</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
+          <t>72.14</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>RYI</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3</v>
-      </c>
+          <t>BVB:ALR</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
           <t>distributor</t>
@@ -2074,40 +2058,24 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2023/12/31</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
+          <t>147.17</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>RYI</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3</v>
-      </c>
+          <t>BVB:ALR</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
           <t>distributor</t>
@@ -2117,40 +2085,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2022/12/31</t>
+          <t>2023/12/31</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
+          <t>-160.97</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>RYI</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="H40" t="n">
-        <v>3</v>
-      </c>
+          <t>BVB:ALR</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
           <t>distributor</t>
@@ -2160,40 +2112,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2021/12/31</t>
+          <t>2022/12/31</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
+          <t>893.17</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>RYI</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="H41" t="n">
-        <v>3</v>
-      </c>
+          <t>BVB:ALR</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
           <t>distributor</t>
@@ -2203,40 +2139,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2020/12/31</t>
+          <t>2021/12/31</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>11.02</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
+          <t>347.33</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>RYI</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="H42" t="n">
-        <v>3</v>
-      </c>
+          <t>BVB:ALR</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
           <t>distributor</t>
@@ -2246,40 +2166,24 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2015/12/31</t>
+          <t>2020/12/31</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Upgrade</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Upgrade</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Upgrade</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Upgrade</t>
-        </is>
-      </c>
+          <t>484.26</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>RYI</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="H43" t="n">
-        <v>3</v>
-      </c>
+          <t>BVB:ALR</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
           <t>distributor</t>
@@ -2523,36 +2427,40 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2015/12/31</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ULTR</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+          <t>BHE</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>supplier</t>
@@ -2562,27 +2470,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>11.01</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2605,27 +2513,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2023/12/31</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>11.01</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2648,27 +2556,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2023/12/31</t>
+          <t>2022/12/31</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2691,27 +2599,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2022/12/31</t>
+          <t>2021/12/31</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2734,27 +2642,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2021/12/31</t>
+          <t>2020/12/31</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>8.74</t>
+          <t>10.03</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2777,39 +2685,25 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2020/12/31</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>10.03</t>
-        </is>
-      </c>
+          <t>2025/10/31</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>BHE</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>3.3</v>
-      </c>
+          <t>CLS</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -2820,39 +2714,25 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2015/12/31</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Upgrade</t>
-        </is>
-      </c>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Upgrade</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Upgrade</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Upgrade</t>
-        </is>
-      </c>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>BHE</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>3.3</v>
-      </c>
+          <t>CLS</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -2863,13 +2743,13 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2023/12/31</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -2892,13 +2772,13 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2022/12/31</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -2921,13 +2801,13 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2023/12/31</t>
+          <t>2021/12/31</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -2950,13 +2830,13 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2022/12/31</t>
+          <t>2020/12/31</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -2979,26 +2859,36 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2021/12/31</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
+          <t>2025/10/31</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>12.13</t>
+        </is>
+      </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>JABIL</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
-      <c r="H62" t="n">
-        <v>5</v>
-      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
           <t>supplier</t>
@@ -3008,26 +2898,36 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2020/12/31</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
+          <t>2025/12/31</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>JABIL</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="n">
-        <v>5</v>
-      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
           <t>supplier</t>
@@ -3037,26 +2937,36 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2019/12/31</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Upgrade</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>JABIL</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="n">
-        <v>5</v>
-      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
           <t>supplier</t>
@@ -3066,27 +2976,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2023/12/31</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>12.13</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3105,27 +3015,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025/12/31</t>
+          <t>2022/12/31</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>11.25</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3144,27 +3054,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2021/12/31</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3183,36 +3093,38 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2023/12/31</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>13.36</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>JABIL</t>
+          <t>FLEX</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
       <c r="I68" t="inlineStr">
         <is>
           <t>supplier</t>
@@ -3222,36 +3134,38 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2022/12/31</t>
+          <t>2025/12/31</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>JABIL</t>
+          <t>FLEX</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
       <c r="I69" t="inlineStr">
         <is>
           <t>supplier</t>
@@ -3261,36 +3175,38 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2021/12/31</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>JABIL</t>
+          <t>FLEX</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
       <c r="I70" t="inlineStr">
         <is>
           <t>supplier</t>
@@ -3300,36 +3216,38 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2016/12/31</t>
+          <t>2023/12/31</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>JABIL</t>
+          <t>FLEX</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
       <c r="I71" t="inlineStr">
         <is>
           <t>supplier</t>
@@ -3339,27 +3257,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2022/12/31</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>13.36</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3380,27 +3298,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025/12/31</t>
+          <t>2021/12/31</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>8.14</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3421,38 +3339,36 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8.83</t>
+          <t>15.32</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>MKS</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="n">
-        <v>7</v>
-      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
           <t>supplier</t>
@@ -3462,38 +3378,36 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2023/12/31</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>12.96</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>MKS</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="n">
-        <v>7</v>
-      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
           <t>supplier</t>
@@ -3503,38 +3417,36 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2022/12/31</t>
+          <t>2023/12/31</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>14.25</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>MKS</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
-      <c r="H76" t="n">
-        <v>7</v>
-      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
           <t>supplier</t>
@@ -3544,38 +3456,36 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2021/12/31</t>
+          <t>2022/12/31</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>11.25</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>MKS</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="n">
-        <v>7</v>
-      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
           <t>supplier</t>
@@ -3585,38 +3495,36 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2016/12/31</t>
+          <t>2021/12/31</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>11.63</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>MKS</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
-      <c r="H78" t="n">
-        <v>7</v>
-      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
           <t>supplier</t>
@@ -3626,27 +3534,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2020/12/31</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>15.32</t>
+          <t>15.46</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3657,240 +3565,6 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
-        <is>
-          <t>supplier</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2024/12/31</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>12.96</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>MKS</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>supplier</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2023/12/31</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>14.25</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>MKS</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>supplier</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2022/12/31</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>11.25</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>MKS</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>supplier</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2021/12/31</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>11.63</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>MKS</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>supplier</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2020/12/31</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>15.46</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>MKS</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>supplier</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2015/12/31</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Upgrade</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Upgrade</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Upgrade</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Upgrade</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>MKS</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr">
         <is>
           <t>supplier</t>
         </is>

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -741,12 +741,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -999,12 +999,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1257,12 +1257,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.49</t>
+          <t>12.54</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1515,12 +1515,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>9.63</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1773,12 +1773,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/01</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>25.83</t>
+          <t>25.62</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2193,12 +2193,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/01</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.69</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2427,12 +2427,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/01</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>11.25</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/01</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2859,12 +2859,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/01</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>12.13</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3093,12 +3093,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/01</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.36</t>
+          <t>13.20</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3339,12 +3339,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/01</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>15.32</t>
+          <t>15.40</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/01</t>
+          <t>2025/11/02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/01</t>
+          <t>2025/11/02</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -999,7 +999,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/01</t>
+          <t>2025/11/02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1257,12 +1257,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/01</t>
+          <t>2025/11/02</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.54</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1515,7 +1515,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/01</t>
+          <t>2025/11/02</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/01</t>
+          <t>2025/11/02</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/01</t>
+          <t>2025/11/02</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/01</t>
+          <t>2025/11/02</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2427,7 +2427,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/01</t>
+          <t>2025/11/02</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/01</t>
+          <t>2025/11/02</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2859,7 +2859,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/01</t>
+          <t>2025/11/02</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3093,12 +3093,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/01</t>
+          <t>2025/11/02</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.20</t>
+          <t>13.02</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3339,7 +3339,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/01</t>
+          <t>2025/11/02</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/02</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/02</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -999,7 +999,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/02</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/02</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1515,7 +1515,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/02</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/02</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/02</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/02</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2427,7 +2427,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/02</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/02</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2859,7 +2859,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/02</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3093,7 +3093,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/02</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3121,7 +3121,9 @@
           <t>FLEX</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>2.57</v>
+      </c>
       <c r="H68" t="n">
         <v>7</v>
       </c>
@@ -3162,7 +3164,9 @@
           <t>FLEX</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>2.57</v>
+      </c>
       <c r="H69" t="n">
         <v>7</v>
       </c>
@@ -3203,7 +3207,9 @@
           <t>FLEX</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>2.57</v>
+      </c>
       <c r="H70" t="n">
         <v>7</v>
       </c>
@@ -3244,7 +3250,9 @@
           <t>FLEX</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>2.57</v>
+      </c>
       <c r="H71" t="n">
         <v>7</v>
       </c>
@@ -3285,7 +3293,9 @@
           <t>FLEX</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>2.57</v>
+      </c>
       <c r="H72" t="n">
         <v>7</v>
       </c>
@@ -3326,7 +3336,9 @@
           <t>FLEX</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>2.57</v>
+      </c>
       <c r="H73" t="n">
         <v>7</v>
       </c>
@@ -3339,7 +3351,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/02</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -741,12 +741,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>7.57</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -999,12 +999,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1257,12 +1257,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>12.45</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1515,12 +1515,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9.63</t>
+          <t>9.81</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1773,12 +1773,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>25.62</t>
+          <t>25.03</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2193,12 +2193,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.66</t>
+          <t>12.04</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2427,12 +2427,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.25</t>
+          <t>11.30</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2859,12 +2859,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.97</t>
+          <t>11.94</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3093,12 +3093,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.02</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3351,12 +3351,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>15.40</t>
+          <t>15.53</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -741,12 +741,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -999,12 +999,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1257,12 +1257,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>12.23</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1515,12 +1515,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9.81</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1773,12 +1773,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>24.88</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2193,12 +2193,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>12.04</t>
+          <t>11.22</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2427,27 +2427,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.30</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2455,11 +2455,9 @@
           <t>BHE</t>
         </is>
       </c>
-      <c r="G50" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2498,11 +2496,9 @@
           <t>BHE</t>
         </is>
       </c>
-      <c r="G51" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2541,11 +2537,9 @@
           <t>BHE</t>
         </is>
       </c>
-      <c r="G52" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2584,11 +2578,9 @@
           <t>BHE</t>
         </is>
       </c>
-      <c r="G53" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2627,11 +2619,9 @@
           <t>BHE</t>
         </is>
       </c>
-      <c r="G54" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -2670,11 +2660,9 @@
           <t>BHE</t>
         </is>
       </c>
-      <c r="G55" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -2685,7 +2673,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2859,12 +2847,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.94</t>
+          <t>11.38</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3093,12 +3081,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.28</t>
+          <t>12.88</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3351,12 +3339,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>15.53</t>
+          <t>14.91</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -741,12 +741,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.39</t>
+          <t>7.38</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -999,12 +999,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1257,12 +1257,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.23</t>
+          <t>12.27</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1515,12 +1515,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1773,12 +1773,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>24.88</t>
+          <t>24.94</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2193,12 +2193,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.22</t>
+          <t>11.49</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2427,12 +2427,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>12.03</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2847,12 +2847,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.38</t>
+          <t>11.83</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3081,12 +3081,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12.88</t>
+          <t>13.54</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3339,27 +3339,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>14.91</t>
+          <t>14.79</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -741,12 +741,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -999,12 +999,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1257,12 +1257,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.27</t>
+          <t>12.18</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1515,12 +1515,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9.76</t>
+          <t>9.71</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1773,12 +1773,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>24.94</t>
+          <t>24.80</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2193,12 +2193,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.49</t>
+          <t>11.23</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2427,17 +2427,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12.03</t>
+          <t>11.72</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2455,7 +2455,9 @@
           <t>BHE</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>3.22</v>
+      </c>
       <c r="H50" t="n">
         <v>6</v>
       </c>
@@ -2496,7 +2498,9 @@
           <t>BHE</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>3.22</v>
+      </c>
       <c r="H51" t="n">
         <v>6</v>
       </c>
@@ -2537,7 +2541,9 @@
           <t>BHE</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>3.22</v>
+      </c>
       <c r="H52" t="n">
         <v>6</v>
       </c>
@@ -2578,7 +2584,9 @@
           <t>BHE</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>3.22</v>
+      </c>
       <c r="H53" t="n">
         <v>6</v>
       </c>
@@ -2619,7 +2627,9 @@
           <t>BHE</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>3.22</v>
+      </c>
       <c r="H54" t="n">
         <v>6</v>
       </c>
@@ -2660,7 +2670,9 @@
           <t>BHE</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>3.22</v>
+      </c>
       <c r="H55" t="n">
         <v>6</v>
       </c>
@@ -2673,7 +2685,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2847,12 +2859,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.83</t>
+          <t>11.67</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3081,12 +3093,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.54</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3339,12 +3351,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>14.79</t>
+          <t>15.94</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -741,12 +741,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -999,12 +999,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/08</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1257,12 +1257,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/08</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.18</t>
+          <t>12.21</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1515,12 +1515,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/08</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9.71</t>
+          <t>9.88</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1773,12 +1773,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/08</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>24.80</t>
+          <t>24.79</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/08</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2193,12 +2193,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/08</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.23</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2427,12 +2427,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/08</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.72</t>
+          <t>11.41</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/08</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2859,12 +2859,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/08</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.67</t>
+          <t>11.61</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3093,12 +3093,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/08</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.17</t>
+          <t>13.04</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3351,7 +3351,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/08</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/08</t>
+          <t>2025/11/09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/08</t>
+          <t>2025/11/09</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -999,7 +999,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/08</t>
+          <t>2025/11/09</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/08</t>
+          <t>2025/11/09</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1515,7 +1515,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/08</t>
+          <t>2025/11/09</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/08</t>
+          <t>2025/11/09</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/08</t>
+          <t>2025/11/09</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/08</t>
+          <t>2025/11/09</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2427,7 +2427,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/08</t>
+          <t>2025/11/09</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/08</t>
+          <t>2025/11/09</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2859,7 +2859,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/08</t>
+          <t>2025/11/09</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3093,7 +3093,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/08</t>
+          <t>2025/11/09</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3351,7 +3351,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/08</t>
+          <t>2025/11/09</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -2688,14 +2688,26 @@
           <t>2025/11/09</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>CLS</t>
@@ -2717,14 +2729,26 @@
           <t>2024/12/31</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>14.66</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>CLS</t>
@@ -2746,14 +2770,26 @@
           <t>2023/12/31</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>CLS</t>
@@ -2775,14 +2811,26 @@
           <t>2022/12/31</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>CLS</t>
@@ -2804,14 +2852,26 @@
           <t>2021/12/31</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>CLS</t>
@@ -2833,14 +2893,26 @@
           <t>2020/12/31</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>CLS</t>

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/09</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/09</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -999,7 +999,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/09</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/09</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1515,7 +1515,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/09</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/09</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/09</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/09</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2427,7 +2427,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/09</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/09</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2931,7 +2931,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/09</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3165,7 +3165,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/09</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3423,7 +3423,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/09</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -741,12 +741,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -999,12 +999,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1257,12 +1257,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.21</t>
+          <t>12.07</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1515,12 +1515,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9.88</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1773,12 +1773,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>24.79</t>
+          <t>24.76</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2193,12 +2193,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>11.53</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2427,12 +2427,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.41</t>
+          <t>11.64</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2685,12 +2685,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>33.59</t>
+          <t>35.99</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2931,12 +2931,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.61</t>
+          <t>11.89</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3165,12 +3165,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.04</t>
+          <t>13.23</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3423,12 +3423,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>15.94</t>
+          <t>16.25</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Ticker</t>
+          <t>Company</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -488,7 +488,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>Alcoa</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -551,7 +551,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>Alcoa</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -594,7 +594,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>Alcoa</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -637,7 +637,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>Alcoa</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -680,7 +680,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>Alcoa</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -723,7 +723,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>Alcoa</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -746,7 +746,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>RIO</t>
+          <t>Rio Tinto</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -809,7 +809,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>RIO</t>
+          <t>Rio Tinto</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -852,7 +852,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>RIO</t>
+          <t>Rio Tinto</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -895,7 +895,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>RIO</t>
+          <t>Rio Tinto</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -938,7 +938,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>RIO</t>
+          <t>Rio Tinto</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -981,7 +981,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>RIO</t>
+          <t>Rio Tinto</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NHY</t>
+          <t>Norsk Hydro</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NHY</t>
+          <t>Norsk Hydro</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NHY</t>
+          <t>Norsk Hydro</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NHY</t>
+          <t>Norsk Hydro</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NHY</t>
+          <t>Norsk Hydro</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NHY</t>
+          <t>Norsk Hydro</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>Reliance</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>Reliance</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>Reliance</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>Reliance</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>Reliance</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>Reliance</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9.93</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>KALU</t>
+          <t>Kaiser</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>KALU</t>
+          <t>Kaiser</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>KALU</t>
+          <t>Kaiser</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>KALU</t>
+          <t>Kaiser</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>KALU</t>
+          <t>Kaiser</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>KALU</t>
+          <t>Kaiser</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>RYI</t>
+          <t>Ryerson</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>RYI</t>
+          <t>Ryerson</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>RYI</t>
+          <t>Ryerson</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>RYI</t>
+          <t>Ryerson</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>RYI</t>
+          <t>Ryerson</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>RYI</t>
+          <t>Ryerson</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -2044,7 +2044,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>BVB:ALR</t>
+          <t>Alro Steel</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2071,7 +2071,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>BVB:ALR</t>
+          <t>Alro Steel</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2098,7 +2098,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>BVB:ALR</t>
+          <t>Alro Steel</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2125,7 +2125,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>BVB:ALR</t>
+          <t>Alro Steel</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2152,7 +2152,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>BVB:ALR</t>
+          <t>Alro Steel</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2179,7 +2179,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>BVB:ALR</t>
+          <t>Alro Steel</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.53</t>
+          <t>11.19</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ULTR</t>
+          <t>Ultra</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ULTR</t>
+          <t>Ultra</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ULTR</t>
+          <t>Ultra</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ULTR</t>
+          <t>Ultra</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ULTR</t>
+          <t>Ultra</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ULTR</t>
+          <t>Ultra</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>BHE</t>
+          <t>Benchmark</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>BHE</t>
+          <t>Benchmark</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>BHE</t>
+          <t>Benchmark</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>BHE</t>
+          <t>Benchmark</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>BHE</t>
+          <t>Benchmark</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>BHE</t>
+          <t>Benchmark</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>Celestica</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>Celestica</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>Celestica</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>Celestica</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>Celestica</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>CLS</t>
+          <t>Celestica</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.89</t>
+          <t>11.55</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>JABIL</t>
+          <t>Jabil</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>JABIL</t>
+          <t>Jabil</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>JABIL</t>
+          <t>Jabil</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>JABIL</t>
+          <t>Jabil</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>JABIL</t>
+          <t>Jabil</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>JABIL</t>
+          <t>Jabil</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.23</t>
+          <t>12.94</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>Flex</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>Flex</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>Flex</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>Flex</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>Flex</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>Flex</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.25</t>
+          <t>15.83</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -999,7 +999,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1257,12 +1257,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.07</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1515,12 +1515,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1773,12 +1773,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>24.76</t>
+          <t>24.66</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2193,12 +2193,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.19</t>
+          <t>11.13</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2427,7 +2427,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2685,12 +2685,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>35.99</t>
+          <t>34.72</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2931,12 +2931,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.55</t>
+          <t>11.47</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3165,12 +3165,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12.94</t>
+          <t>12.83</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3423,12 +3423,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>15.83</t>
+          <t>15.78</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -741,12 +741,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -999,12 +999,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1257,12 +1257,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1515,12 +1515,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1773,12 +1773,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>24.66</t>
+          <t>24.84</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2193,12 +2193,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.13</t>
+          <t>11.19</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2427,12 +2427,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.64</t>
+          <t>11.69</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2685,12 +2685,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>34.72</t>
+          <t>34.97</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2931,12 +2931,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.47</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3165,12 +3165,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12.83</t>
+          <t>13.09</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3423,12 +3423,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>15.78</t>
+          <t>15.82</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -741,12 +741,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -999,7 +999,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1257,12 +1257,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>12.13</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1515,12 +1515,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1773,12 +1773,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>24.84</t>
+          <t>24.60</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2193,12 +2193,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.19</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2427,12 +2427,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.69</t>
+          <t>11.18</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2685,12 +2685,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>34.97</t>
+          <t>30.71</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2931,12 +2931,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>11.01</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3165,12 +3165,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.09</t>
+          <t>12.45</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3423,12 +3423,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>15.82</t>
+          <t>15.14</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -741,12 +741,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -999,12 +999,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1257,12 +1257,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.13</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1515,12 +1515,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/15</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1773,12 +1773,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/15</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>24.60</t>
+          <t>24.62</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/15</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2193,12 +2193,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/15</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10.65</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2427,12 +2427,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/15</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.18</t>
+          <t>11.22</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2685,12 +2685,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/15</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>30.71</t>
+          <t>32.48</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2931,7 +2931,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/15</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3165,12 +3165,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/15</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>12.53</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3423,12 +3423,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/15</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>15.14</t>
+          <t>15.04</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/15</t>
+          <t>2025/11/16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/15</t>
+          <t>2025/11/16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -999,7 +999,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/15</t>
+          <t>2025/11/16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/15</t>
+          <t>2025/11/16</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1515,7 +1515,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/15</t>
+          <t>2025/11/16</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/15</t>
+          <t>2025/11/16</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2031,12 +2031,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/15</t>
+          <t>2025/11/16</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>72.14</t>
+          <t>38.59</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2193,7 +2193,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/15</t>
+          <t>2025/11/16</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2427,7 +2427,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/15</t>
+          <t>2025/11/16</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/15</t>
+          <t>2025/11/16</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2931,7 +2931,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/15</t>
+          <t>2025/11/16</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3165,7 +3165,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/15</t>
+          <t>2025/11/16</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3423,7 +3423,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/15</t>
+          <t>2025/11/16</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/16</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/16</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -999,7 +999,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/16</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/16</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1515,7 +1515,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/16</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/16</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2031,12 +2031,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/16</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>38.59</t>
+          <t>32.35</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2193,7 +2193,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/16</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2427,7 +2427,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/16</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/16</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2931,7 +2931,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/16</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3165,7 +3165,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/16</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3423,7 +3423,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/16</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,3236 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>EBITDA</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Debt / Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Inventory Turnover</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Current Ratio</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Altman Z-Score</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Piotroski F-Score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025/11/19</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Alcoa</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Alcoa</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023/12/31</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Alcoa</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2022/12/31</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Alcoa</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2021/12/31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alcoa</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020/12/31</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alcoa</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025/11/19</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Rio Tinto</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Rio Tinto</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023/12/31</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Rio Tinto</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2022/12/31</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Rio Tinto</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2021/12/31</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Rio Tinto</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020/12/31</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Rio Tinto</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025/11/19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Norsk Hydro</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Norsk Hydro</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023/12/31</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Norsk Hydro</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2022/12/31</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Norsk Hydro</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2021/12/31</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Norsk Hydro</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020/12/31</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Norsk Hydro</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025/11/19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>11.83</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Reliance</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Reliance</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023/12/31</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Reliance</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2022/12/31</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Reliance</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2021/12/31</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Reliance</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020/12/31</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Reliance</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025/11/19</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Kaiser</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Kaiser</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023/12/31</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kaiser</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2022/12/31</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>16.45</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Kaiser</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2021/12/31</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Kaiser</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2020/12/31</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Kaiser</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025/11/19</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Ryerson</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Ryerson</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023/12/31</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Ryerson</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2022/12/31</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Ryerson</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2021/12/31</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Ryerson</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2020/12/31</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Ryerson</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025/11/19</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Alro Steel</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>147.17</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Alro Steel</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023/12/31</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>-160.97</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Alro Steel</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2022/12/31</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>893.17</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Alro Steel</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2021/12/31</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>347.33</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Alro Steel</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2020/12/31</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>484.26</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Alro Steel</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025/11/19</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Ultra</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Ultra</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023/12/31</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>18.45</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Ultra</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2022/12/31</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Ultra</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2021/12/31</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Ultra</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2020/12/31</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Ultra</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025/11/19</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Benchmark</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Benchmark</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023/12/31</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Benchmark</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2022/12/31</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Benchmark</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2021/12/31</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Benchmark</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2020/12/31</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Benchmark</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025/11/19</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>31.36</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Celestica</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>14.66</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Celestica</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023/12/31</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Celestica</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2022/12/31</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Celestica</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2021/12/31</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Celestica</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2020/12/31</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Celestica</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025/11/19</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Jabil</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025/12/31</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Jabil</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Jabil</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023/12/31</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Jabil</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2022/12/31</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Jabil</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2021/12/31</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Jabil</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025/11/19</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025/12/31</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023/12/31</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2022/12/31</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2021/12/31</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025/11/19</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>MKS</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>MKS</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2023/12/31</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>14.25</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>MKS</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2022/12/31</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>MKS</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2021/12/31</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>MKS</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2020/12/31</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>15.46</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>MKS</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -741,12 +741,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -999,12 +999,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1257,12 +1257,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11.83</t>
+          <t>11.87</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1515,12 +1515,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9.59</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1773,12 +1773,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>24.58</t>
+          <t>24.84</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2193,12 +2193,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>9.90</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2427,12 +2427,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2685,12 +2685,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>31.36</t>
+          <t>32.78</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2931,12 +2931,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10.86</t>
+          <t>10.92</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3165,12 +3165,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12.07</t>
+          <t>12.21</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3423,12 +3423,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>14.86</t>
+          <t>15.12</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -741,12 +741,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -999,7 +999,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1515,12 +1515,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9.61</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1773,12 +1773,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>24.84</t>
+          <t>24.80</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2193,12 +2193,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>9.73</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2427,12 +2427,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2685,12 +2685,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>32.78</t>
+          <t>29.64</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2931,12 +2931,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10.92</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3165,12 +3165,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12.21</t>
+          <t>11.48</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3423,12 +3423,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>15.12</t>
+          <t>14.72</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>Category</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Risk Level</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -488,7 +493,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -522,6 +527,11 @@
           <t>mills</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>High risk</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -565,6 +575,11 @@
           <t>mills</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>High risk</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -608,6 +623,11 @@
           <t>mills</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>High risk</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -651,6 +671,11 @@
           <t>mills</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>High risk</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -694,6 +719,11 @@
           <t>mills</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>High risk</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -737,6 +767,11 @@
           <t>mills</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>High risk</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -780,6 +815,11 @@
           <t>mills</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -823,6 +863,11 @@
           <t>mills</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -866,6 +911,11 @@
           <t>mills</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -909,6 +959,11 @@
           <t>mills</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -952,6 +1007,11 @@
           <t>mills</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -995,6 +1055,11 @@
           <t>mills</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1038,6 +1103,11 @@
           <t>mills</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Low risk</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1081,6 +1151,11 @@
           <t>mills</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Low risk</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1124,6 +1199,11 @@
           <t>mills</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Low risk</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1167,6 +1247,11 @@
           <t>mills</t>
         </is>
       </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Low risk</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1210,6 +1295,11 @@
           <t>mills</t>
         </is>
       </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Low risk</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1253,6 +1343,11 @@
           <t>mills</t>
         </is>
       </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Low risk</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1262,7 +1357,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11.87</t>
+          <t>12.04</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1296,6 +1391,11 @@
           <t>distributor</t>
         </is>
       </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Low risk</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1339,6 +1439,11 @@
           <t>distributor</t>
         </is>
       </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Low risk</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1382,6 +1487,11 @@
           <t>distributor</t>
         </is>
       </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Low risk</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1425,6 +1535,11 @@
           <t>distributor</t>
         </is>
       </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Low risk</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1468,6 +1583,11 @@
           <t>distributor</t>
         </is>
       </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Low risk</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1511,6 +1631,11 @@
           <t>distributor</t>
         </is>
       </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Low risk</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1554,6 +1679,11 @@
           <t>distributor</t>
         </is>
       </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1597,6 +1727,11 @@
           <t>distributor</t>
         </is>
       </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1640,6 +1775,11 @@
           <t>distributor</t>
         </is>
       </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1683,6 +1823,11 @@
           <t>distributor</t>
         </is>
       </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1726,6 +1871,11 @@
           <t>distributor</t>
         </is>
       </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1769,6 +1919,11 @@
           <t>distributor</t>
         </is>
       </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1778,7 +1933,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>24.80</t>
+          <t>25.01</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1812,6 +1967,11 @@
           <t>distributor</t>
         </is>
       </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1855,6 +2015,11 @@
           <t>distributor</t>
         </is>
       </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1898,6 +2063,11 @@
           <t>distributor</t>
         </is>
       </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1941,6 +2111,11 @@
           <t>distributor</t>
         </is>
       </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1984,6 +2159,11 @@
           <t>distributor</t>
         </is>
       </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2025,6 +2205,11 @@
       <c r="I37" t="inlineStr">
         <is>
           <t>distributor</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
         </is>
       </c>
     </row>
@@ -2054,6 +2239,7 @@
           <t>distributor</t>
         </is>
       </c>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2081,6 +2267,7 @@
           <t>distributor</t>
         </is>
       </c>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2108,6 +2295,7 @@
           <t>distributor</t>
         </is>
       </c>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2135,6 +2323,7 @@
           <t>distributor</t>
         </is>
       </c>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2162,6 +2351,7 @@
           <t>distributor</t>
         </is>
       </c>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2189,6 +2379,7 @@
           <t>distributor</t>
         </is>
       </c>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2198,7 +2389,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>9.73</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2228,6 +2419,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2267,6 +2459,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2306,6 +2499,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2345,6 +2539,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2384,6 +2579,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2423,6 +2619,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2466,6 +2663,11 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Low risk</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2509,6 +2711,11 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Low risk</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2552,6 +2759,11 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Low risk</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2595,6 +2807,11 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Low risk</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2638,6 +2855,11 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Low risk</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2679,6 +2901,11 @@
       <c r="I55" t="inlineStr">
         <is>
           <t>supplier</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Low risk</t>
         </is>
       </c>
     </row>
@@ -2722,6 +2949,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2763,6 +2991,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2804,6 +3033,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2845,6 +3075,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2886,6 +3117,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2927,6 +3159,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2936,7 +3169,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10.54</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2966,6 +3199,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3005,6 +3239,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3044,6 +3279,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3083,6 +3319,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3122,6 +3359,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3161,6 +3399,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3170,7 +3409,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>11.48</t>
+          <t>11.49</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3204,6 +3443,11 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3247,6 +3491,11 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3290,6 +3539,11 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3333,6 +3587,11 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3376,6 +3635,11 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3417,6 +3681,11 @@
       <c r="I73" t="inlineStr">
         <is>
           <t>supplier</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
         </is>
       </c>
     </row>
@@ -3458,6 +3727,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3497,6 +3767,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3536,6 +3807,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3575,6 +3847,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3614,6 +3887,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3653,6 +3927,7 @@
           <t>supplier</t>
         </is>
       </c>
+      <c r="J79" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/22</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/22</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/22</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.04</t>
+          <t>12.20</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/22</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>9.71</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/22</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>25.01</t>
+          <t>25.34</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/22</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/22</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2624,12 +2624,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/22</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2912,12 +2912,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/22</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>29.64</t>
+          <t>29.34</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3164,12 +3164,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/22</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10.70</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3404,12 +3404,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/22</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>11.49</t>
+          <t>11.63</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3692,12 +3692,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/22</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>14.72</t>
+          <t>15.13</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/22</t>
+          <t>2025/11/23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/22</t>
+          <t>2025/11/23</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/22</t>
+          <t>2025/11/23</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/22</t>
+          <t>2025/11/23</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/22</t>
+          <t>2025/11/23</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/22</t>
+          <t>2025/11/23</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/22</t>
+          <t>2025/11/23</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/22</t>
+          <t>2025/11/23</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2624,7 +2624,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/22</t>
+          <t>2025/11/23</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2912,7 +2912,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/22</t>
+          <t>2025/11/23</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3164,7 +3164,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/22</t>
+          <t>2025/11/23</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3404,7 +3404,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/22</t>
+          <t>2025/11/23</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3692,7 +3692,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/22</t>
+          <t>2025/11/23</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/23</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/23</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/23</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/23</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/23</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/23</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/23</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/23</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2624,7 +2624,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/23</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2912,7 +2912,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/23</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3164,7 +3164,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/23</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3404,7 +3404,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/23</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3692,7 +3692,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/23</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/24</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/24</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/24</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/24</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.20</t>
+          <t>12.13</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/24</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9.71</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/24</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2216,12 +2216,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/24</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>71.14</t>
+          <t>38.59</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/24</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2624,12 +2624,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/24</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>11.41</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2912,12 +2912,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/24</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>29.34</t>
+          <t>33.66</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3164,12 +3164,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/24</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10.75</t>
+          <t>10.77</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3404,12 +3404,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/24</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>11.63</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3692,12 +3692,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/24</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>15.13</t>
+          <t>15.58</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/25</t>
+          <t>2025/11/26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/25</t>
+          <t>2025/11/26</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/25</t>
+          <t>2025/11/26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/25</t>
+          <t>2025/11/26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.13</t>
+          <t>12.39</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/25</t>
+          <t>2025/11/26</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/25</t>
+          <t>2025/11/26</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>25.34</t>
+          <t>25.99</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/25</t>
+          <t>2025/11/26</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/25</t>
+          <t>2025/11/26</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2624,12 +2624,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/25</t>
+          <t>2025/11/26</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.41</t>
+          <t>11.56</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2912,12 +2912,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/25</t>
+          <t>2025/11/26</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>33.66</t>
+          <t>34.30</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3164,12 +3164,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/25</t>
+          <t>2025/11/26</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10.77</t>
+          <t>11.12</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3404,12 +3404,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/25</t>
+          <t>2025/11/26</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>12.03</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3692,12 +3692,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/25</t>
+          <t>2025/11/26</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>15.58</t>
+          <t>15.51</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/26</t>
+          <t>2025/11/27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/26</t>
+          <t>2025/11/27</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/26</t>
+          <t>2025/11/27</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/26</t>
+          <t>2025/11/27</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.39</t>
+          <t>12.42</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/26</t>
+          <t>2025/11/27</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/26</t>
+          <t>2025/11/27</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>25.99</t>
+          <t>26.04</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/26</t>
+          <t>2025/11/27</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/26</t>
+          <t>2025/11/27</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>10.90</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2624,12 +2624,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/26</t>
+          <t>2025/11/27</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.56</t>
+          <t>11.61</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2912,12 +2912,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/26</t>
+          <t>2025/11/27</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>34.30</t>
+          <t>34.78</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3164,12 +3164,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/26</t>
+          <t>2025/11/27</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.12</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3404,12 +3404,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/26</t>
+          <t>2025/11/27</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12.03</t>
+          <t>12.23</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3692,12 +3692,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/26</t>
+          <t>2025/11/27</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>15.51</t>
+          <t>15.74</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/27</t>
+          <t>2025/11/28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/27</t>
+          <t>2025/11/28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/27</t>
+          <t>2025/11/28</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/27</t>
+          <t>2025/11/28</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/27</t>
+          <t>2025/11/28</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/27</t>
+          <t>2025/11/28</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/27</t>
+          <t>2025/11/28</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/27</t>
+          <t>2025/11/28</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2624,7 +2624,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/27</t>
+          <t>2025/11/28</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2912,12 +2912,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/27</t>
+          <t>2025/11/28</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>34.78</t>
+          <t>35.17</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3164,7 +3164,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/27</t>
+          <t>2025/11/28</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3404,7 +3404,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/27</t>
+          <t>2025/11/28</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3692,7 +3692,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/27</t>
+          <t>2025/11/28</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/28</t>
+          <t>2025/11/29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/28</t>
+          <t>2025/11/29</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/28</t>
+          <t>2025/11/29</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/28</t>
+          <t>2025/11/29</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.42</t>
+          <t>12.37</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/28</t>
+          <t>2025/11/29</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/28</t>
+          <t>2025/11/29</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>26.04</t>
+          <t>26.09</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/28</t>
+          <t>2025/11/29</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/28</t>
+          <t>2025/11/29</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10.90</t>
+          <t>10.97</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2624,7 +2624,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/28</t>
+          <t>2025/11/29</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2912,12 +2912,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/28</t>
+          <t>2025/11/29</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>35.17</t>
+          <t>35.94</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3164,12 +3164,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/28</t>
+          <t>2025/11/29</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.28</t>
+          <t>11.45</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3404,12 +3404,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/28</t>
+          <t>2025/11/29</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12.23</t>
+          <t>12.37</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3692,12 +3692,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/28</t>
+          <t>2025/11/29</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>15.74</t>
+          <t>16.06</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/29</t>
+          <t>2025/11/30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/29</t>
+          <t>2025/11/30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/29</t>
+          <t>2025/11/30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/29</t>
+          <t>2025/11/30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/29</t>
+          <t>2025/11/30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/29</t>
+          <t>2025/11/30</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/29</t>
+          <t>2025/11/30</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/29</t>
+          <t>2025/11/30</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2412,14 +2412,22 @@
           <t>Ultra</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>supplier</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2452,14 +2460,22 @@
           <t>Ultra</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>supplier</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2492,14 +2508,22 @@
           <t>Ultra</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
       <c r="I46" t="inlineStr">
         <is>
           <t>supplier</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2532,14 +2556,22 @@
           <t>Ultra</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
       <c r="I47" t="inlineStr">
         <is>
           <t>supplier</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2572,14 +2604,22 @@
           <t>Ultra</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
           <t>supplier</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2612,19 +2652,27 @@
           <t>Ultra</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
           <t>supplier</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Medium risk</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/29</t>
+          <t>2025/11/30</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2912,7 +2960,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/29</t>
+          <t>2025/11/30</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3164,7 +3212,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/29</t>
+          <t>2025/11/30</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3404,7 +3452,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/29</t>
+          <t>2025/11/30</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3692,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/29</t>
+          <t>2025/11/30</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.06</t>
+          <t>16.17</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/30</t>
+          <t>2025/12/01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/30</t>
+          <t>2025/12/01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/30</t>
+          <t>2025/12/01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/30</t>
+          <t>2025/12/01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/11/30</t>
+          <t>2025/12/01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/11/30</t>
+          <t>2025/12/01</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/11/30</t>
+          <t>2025/12/01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/11/30</t>
+          <t>2025/12/01</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2672,7 +2672,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/11/30</t>
+          <t>2025/12/01</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2960,7 +2960,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/11/30</t>
+          <t>2025/12/01</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3212,7 +3212,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/11/30</t>
+          <t>2025/12/01</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3452,7 +3452,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/11/30</t>
+          <t>2025/12/01</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3740,7 +3740,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/11/30</t>
+          <t>2025/12/01</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/01</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/01</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/01</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/01</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.37</t>
+          <t>12.51</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/01</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9.97</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/01</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>26.09</t>
+          <t>26.27</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/01</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/01</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/01</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.61</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/01</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>35.94</t>
+          <t>33.33</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/01</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.45</t>
+          <t>11.42</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/01</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12.37</t>
+          <t>11.88</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/01</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.17</t>
+          <t>16.14</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/03</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/03</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/03</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.51</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/03</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10.01</t>
+          <t>10.11</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/03</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>26.27</t>
+          <t>25.99</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/03</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/03</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10.97</t>
+          <t>11.10</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/03</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>11.79</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/03</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>33.33</t>
+          <t>31.87</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/03</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.42</t>
+          <t>11.52</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/03</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>11.88</t>
+          <t>12.04</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/02</t>
+          <t>2025/12/03</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.14</t>
+          <t>16.52</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/03</t>
+          <t>2025/12/04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/03</t>
+          <t>2025/12/04</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/03</t>
+          <t>2025/12/04</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/03</t>
+          <t>2025/12/04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>12.72</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/03</t>
+          <t>2025/12/04</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10.11</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/03</t>
+          <t>2025/12/04</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>25.99</t>
+          <t>26.59</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/03</t>
+          <t>2025/12/04</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/03</t>
+          <t>2025/12/04</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.10</t>
+          <t>11.47</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/03</t>
+          <t>2025/12/04</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.79</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/03</t>
+          <t>2025/12/04</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>31.87</t>
+          <t>32.30</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/03</t>
+          <t>2025/12/04</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.52</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/03</t>
+          <t>2025/12/04</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12.04</t>
+          <t>12.30</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/03</t>
+          <t>2025/12/04</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.52</t>
+          <t>16.70</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/04</t>
+          <t>2025/12/05</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/04</t>
+          <t>2025/12/05</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/04</t>
+          <t>2025/12/05</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/04</t>
+          <t>2025/12/05</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.72</t>
+          <t>12.73</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/04</t>
+          <t>2025/12/05</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10.47</t>
+          <t>10.60</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/04</t>
+          <t>2025/12/05</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>26.59</t>
+          <t>26.69</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/04</t>
+          <t>2025/12/05</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/04</t>
+          <t>2025/12/05</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.47</t>
+          <t>11.30</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/04</t>
+          <t>2025/12/05</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>12.08</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/04</t>
+          <t>2025/12/05</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>32.30</t>
+          <t>33.78</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/04</t>
+          <t>2025/12/05</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>11.86</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/04</t>
+          <t>2025/12/05</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12.30</t>
+          <t>12.76</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,7 +3740,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/04</t>
+          <t>2025/12/05</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/05</t>
+          <t>2025/12/06</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/05</t>
+          <t>2025/12/06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/05</t>
+          <t>2025/12/06</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/05</t>
+          <t>2025/12/06</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.73</t>
+          <t>12.63</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/05</t>
+          <t>2025/12/06</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10.60</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/05</t>
+          <t>2025/12/06</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>26.69</t>
+          <t>26.61</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/05</t>
+          <t>2025/12/06</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/05</t>
+          <t>2025/12/06</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.30</t>
+          <t>11.27</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/05</t>
+          <t>2025/12/06</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12.08</t>
+          <t>12.12</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/05</t>
+          <t>2025/12/06</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>33.78</t>
+          <t>33.94</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/05</t>
+          <t>2025/12/06</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.86</t>
+          <t>11.93</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/05</t>
+          <t>2025/12/06</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12.76</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/05</t>
+          <t>2025/12/06</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.70</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/06</t>
+          <t>2025/12/07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/06</t>
+          <t>2025/12/07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/06</t>
+          <t>2025/12/07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/06</t>
+          <t>2025/12/07</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/06</t>
+          <t>2025/12/07</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/06</t>
+          <t>2025/12/07</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/06</t>
+          <t>2025/12/07</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/06</t>
+          <t>2025/12/07</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2672,7 +2672,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/06</t>
+          <t>2025/12/07</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2960,7 +2960,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/06</t>
+          <t>2025/12/07</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3212,7 +3212,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/06</t>
+          <t>2025/12/07</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3452,7 +3452,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/06</t>
+          <t>2025/12/07</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3740,7 +3740,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/06</t>
+          <t>2025/12/07</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/07</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/07</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/07</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/07</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/07</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/07</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/07</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/07</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2672,7 +2672,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/07</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2960,7 +2960,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/07</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3212,7 +3212,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/07</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3452,7 +3452,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/07</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3740,7 +3740,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/07</t>
+          <t>2025/12/08</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/09</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/09</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/09</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.63</t>
+          <t>12.45</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/09</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/09</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>26.61</t>
+          <t>26.21</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/09</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/09</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.27</t>
+          <t>11.46</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/09</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12.12</t>
+          <t>12.16</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/09</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>33.94</t>
+          <t>35.69</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/09</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.93</t>
+          <t>12.20</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/09</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>13.98</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/08</t>
+          <t>2025/12/09</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.67</t>
+          <t>16.78</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/09</t>
+          <t>2025/12/10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/09</t>
+          <t>2025/12/10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/09</t>
+          <t>2025/12/10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/09</t>
+          <t>2025/12/10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>12.42</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/09</t>
+          <t>2025/12/10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>10.46</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/09</t>
+          <t>2025/12/10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>26.21</t>
+          <t>26.32</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/09</t>
+          <t>2025/12/10</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/09</t>
+          <t>2025/12/10</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.46</t>
+          <t>11.61</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/09</t>
+          <t>2025/12/10</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12.16</t>
+          <t>12.23</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/09</t>
+          <t>2025/12/10</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>35.69</t>
+          <t>35.84</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/09</t>
+          <t>2025/12/10</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>12.20</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/09</t>
+          <t>2025/12/10</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.98</t>
+          <t>14.16</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/09</t>
+          <t>2025/12/10</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.78</t>
+          <t>16.84</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/10</t>
+          <t>2025/12/11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/10</t>
+          <t>2025/12/11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/10</t>
+          <t>2025/12/11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/10</t>
+          <t>2025/12/11</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.42</t>
+          <t>12.76</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/10</t>
+          <t>2025/12/11</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10.46</t>
+          <t>10.61</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/10</t>
+          <t>2025/12/11</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>26.32</t>
+          <t>26.75</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/10</t>
+          <t>2025/12/11</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/10</t>
+          <t>2025/12/11</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.61</t>
+          <t>11.90</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/10</t>
+          <t>2025/12/11</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12.23</t>
+          <t>12.67</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/10</t>
+          <t>2025/12/11</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>35.84</t>
+          <t>36.38</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/10</t>
+          <t>2025/12/11</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>12.43</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/10</t>
+          <t>2025/12/11</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>14.16</t>
+          <t>14.85</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/10</t>
+          <t>2025/12/11</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.84</t>
+          <t>17.04</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/11</t>
+          <t>2025/12/12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/11</t>
+          <t>2025/12/12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/11</t>
+          <t>2025/12/12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/11</t>
+          <t>2025/12/12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.76</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/11</t>
+          <t>2025/12/12</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10.61</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/11</t>
+          <t>2025/12/12</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>26.75</t>
+          <t>27.29</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/11</t>
+          <t>2025/12/12</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/11</t>
+          <t>2025/12/12</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>11.89</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,7 +2672,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/11</t>
+          <t>2025/12/12</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/11</t>
+          <t>2025/12/12</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>36.38</t>
+          <t>36.75</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/11</t>
+          <t>2025/12/12</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>12.43</t>
+          <t>12.64</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/11</t>
+          <t>2025/12/12</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>14.85</t>
+          <t>14.64</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/11</t>
+          <t>2025/12/12</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>17.04</t>
+          <t>16.96</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/12</t>
+          <t>2025/12/13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/12</t>
+          <t>2025/12/13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/12</t>
+          <t>2025/12/13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/12</t>
+          <t>2025/12/13</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/12</t>
+          <t>2025/12/13</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>10.76</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/12</t>
+          <t>2025/12/13</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27.29</t>
+          <t>27.30</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/12</t>
+          <t>2025/12/13</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/12</t>
+          <t>2025/12/13</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.89</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/12</t>
+          <t>2025/12/13</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>12.30</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/12</t>
+          <t>2025/12/13</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>36.75</t>
+          <t>32.05</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/12</t>
+          <t>2025/12/13</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>12.64</t>
+          <t>12.04</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/12</t>
+          <t>2025/12/13</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>14.64</t>
+          <t>14.22</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/12</t>
+          <t>2025/12/13</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.96</t>
+          <t>16.12</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/13</t>
+          <t>2025/12/14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/13</t>
+          <t>2025/12/14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/13</t>
+          <t>2025/12/14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/13</t>
+          <t>2025/12/14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/13</t>
+          <t>2025/12/14</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/13</t>
+          <t>2025/12/14</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/13</t>
+          <t>2025/12/14</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/13</t>
+          <t>2025/12/14</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2672,7 +2672,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/13</t>
+          <t>2025/12/14</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2960,7 +2960,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/13</t>
+          <t>2025/12/14</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3212,7 +3212,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/13</t>
+          <t>2025/12/14</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3452,7 +3452,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/13</t>
+          <t>2025/12/14</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3740,7 +3740,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/13</t>
+          <t>2025/12/14</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/14</t>
+          <t>2025/12/15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/14</t>
+          <t>2025/12/15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/14</t>
+          <t>2025/12/15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/14</t>
+          <t>2025/12/15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/14</t>
+          <t>2025/12/15</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/14</t>
+          <t>2025/12/15</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/14</t>
+          <t>2025/12/15</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/14</t>
+          <t>2025/12/15</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2672,7 +2672,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/14</t>
+          <t>2025/12/15</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2960,7 +2960,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/14</t>
+          <t>2025/12/15</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3212,7 +3212,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/14</t>
+          <t>2025/12/15</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3452,7 +3452,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/14</t>
+          <t>2025/12/15</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3740,7 +3740,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/14</t>
+          <t>2025/12/15</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/15</t>
+          <t>2025/12/16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/15</t>
+          <t>2025/12/16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/15</t>
+          <t>2025/12/16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/15</t>
+          <t>2025/12/16</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>12.88</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/15</t>
+          <t>2025/12/16</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10.76</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/15</t>
+          <t>2025/12/16</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27.30</t>
+          <t>26.54</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/15</t>
+          <t>2025/12/16</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/15</t>
+          <t>2025/12/16</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/15</t>
+          <t>2025/12/16</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12.30</t>
+          <t>12.18</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/15</t>
+          <t>2025/12/16</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>32.05</t>
+          <t>31.73</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/15</t>
+          <t>2025/12/16</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>12.04</t>
+          <t>11.98</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/15</t>
+          <t>2025/12/16</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>14.22</t>
+          <t>14.03</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/15</t>
+          <t>2025/12/16</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.12</t>
+          <t>16.39</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/16</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/16</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>8.11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/16</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/16</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.88</t>
+          <t>12.98</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/16</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>10.94</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/16</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>26.54</t>
+          <t>26.92</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/16</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/16</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>10.89</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/16</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12.18</t>
+          <t>11.78</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/16</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>31.73</t>
+          <t>30.26</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/16</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.98</t>
+          <t>11.55</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/16</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>14.03</t>
+          <t>13.49</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/16</t>
+          <t>2025/12/17</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.39</t>
+          <t>16.16</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2025/12/18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2025/12/18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.11</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2025/12/18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2025/12/18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.98</t>
+          <t>13.04</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2025/12/18</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10.94</t>
+          <t>10.90</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2025/12/18</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>26.92</t>
+          <t>27.30</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2025/12/18</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2025/12/18</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2025/12/18</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.78</t>
+          <t>11.42</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2025/12/18</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>30.26</t>
+          <t>28.93</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,27 +3212,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2025/12/18</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.55</t>
+          <t>10.84</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2025/12/18</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.49</t>
+          <t>13.08</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/17</t>
+          <t>2025/12/18</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.16</t>
+          <t>15.59</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/18</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/18</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/18</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/18</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13.04</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/18</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10.90</t>
+          <t>10.98</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/18</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27.30</t>
+          <t>27.66</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/18</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/18</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10.54</t>
+          <t>10.94</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/18</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.42</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/18</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>28.93</t>
+          <t>28.44</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/18</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10.84</t>
+          <t>10.88</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/18</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.08</t>
+          <t>13.12</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/18</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>15.59</t>
+          <t>16.22</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/20</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>12.77</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/20</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10.98</t>
+          <t>11.09</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/20</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27.66</t>
+          <t>27.47</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/20</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/20</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10.94</t>
+          <t>11.05</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/20</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.36</t>
+          <t>11.51</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/20</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>28.44</t>
+          <t>30.98</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/20</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10.88</t>
+          <t>11.32</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/20</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.12</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/20</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.22</t>
+          <t>16.41</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2672,7 +2672,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2960,7 +2960,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3212,7 +3212,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3452,7 +3452,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3740,7 +3740,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2025/12/21</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/22</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/22</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/22</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/22</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/22</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/22</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/22</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2672,7 +2672,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/22</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2960,7 +2960,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/22</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3212,7 +3212,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/22</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3452,7 +3452,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/22</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3740,7 +3740,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/21</t>
+          <t>2025/12/22</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/22</t>
+          <t>2025/12/23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/22</t>
+          <t>2025/12/23</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/22</t>
+          <t>2025/12/23</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/22</t>
+          <t>2025/12/23</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.77</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/22</t>
+          <t>2025/12/23</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11.09</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/22</t>
+          <t>2025/12/23</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27.47</t>
+          <t>27.79</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/22</t>
+          <t>2025/12/23</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/22</t>
+          <t>2025/12/23</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.05</t>
+          <t>11.18</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/22</t>
+          <t>2025/12/23</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.51</t>
+          <t>11.53</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/22</t>
+          <t>2025/12/23</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>30.98</t>
+          <t>32.15</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/22</t>
+          <t>2025/12/23</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.32</t>
+          <t>11.47</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/22</t>
+          <t>2025/12/23</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>13.26</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/22</t>
+          <t>2025/12/23</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.41</t>
+          <t>16.59</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/23</t>
+          <t>2025/12/24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/23</t>
+          <t>2025/12/24</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>8.54</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/23</t>
+          <t>2025/12/24</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/23</t>
+          <t>2025/12/24</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/23</t>
+          <t>2025/12/24</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>11.24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/23</t>
+          <t>2025/12/24</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27.79</t>
+          <t>27.95</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/23</t>
+          <t>2025/12/24</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/23</t>
+          <t>2025/12/24</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.18</t>
+          <t>11.24</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/23</t>
+          <t>2025/12/24</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.53</t>
+          <t>11.55</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/23</t>
+          <t>2025/12/24</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>32.15</t>
+          <t>31.76</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/23</t>
+          <t>2025/12/24</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.47</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/23</t>
+          <t>2025/12/24</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.26</t>
+          <t>13.25</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/23</t>
+          <t>2025/12/24</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.59</t>
+          <t>16.66</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/24</t>
+          <t>2025/12/25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/24</t>
+          <t>2025/12/25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.54</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/24</t>
+          <t>2025/12/25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/24</t>
+          <t>2025/12/25</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/24</t>
+          <t>2025/12/25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11.24</t>
+          <t>11.26</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/24</t>
+          <t>2025/12/25</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27.95</t>
+          <t>27.82</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/24</t>
+          <t>2025/12/25</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/24</t>
+          <t>2025/12/25</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.24</t>
+          <t>11.25</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/24</t>
+          <t>2025/12/25</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.55</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/24</t>
+          <t>2025/12/25</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>31.76</t>
+          <t>32.38</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/24</t>
+          <t>2025/12/25</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>11.69</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/24</t>
+          <t>2025/12/25</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.25</t>
+          <t>13.21</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/24</t>
+          <t>2025/12/25</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.66</t>
+          <t>16.70</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/25</t>
+          <t>2025/12/26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/25</t>
+          <t>2025/12/26</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/25</t>
+          <t>2025/12/26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/25</t>
+          <t>2025/12/26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/25</t>
+          <t>2025/12/26</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/25</t>
+          <t>2025/12/26</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/25</t>
+          <t>2025/12/26</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/25</t>
+          <t>2025/12/26</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2672,7 +2672,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/25</t>
+          <t>2025/12/26</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2960,7 +2960,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/25</t>
+          <t>2025/12/26</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3212,7 +3212,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/25</t>
+          <t>2025/12/26</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3452,7 +3452,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/25</t>
+          <t>2025/12/26</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3740,7 +3740,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/25</t>
+          <t>2025/12/26</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/26</t>
+          <t>2025/12/27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/26</t>
+          <t>2025/12/27</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/26</t>
+          <t>2025/12/27</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/26</t>
+          <t>2025/12/27</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/26</t>
+          <t>2025/12/27</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11.26</t>
+          <t>11.30</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/26</t>
+          <t>2025/12/27</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27.82</t>
+          <t>27.86</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/26</t>
+          <t>2025/12/27</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/26</t>
+          <t>2025/12/27</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.25</t>
+          <t>11.20</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/26</t>
+          <t>2025/12/27</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.60</t>
+          <t>11.57</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,7 +2960,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/26</t>
+          <t>2025/12/27</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/26</t>
+          <t>2025/12/27</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.69</t>
+          <t>11.76</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/26</t>
+          <t>2025/12/27</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.21</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/26</t>
+          <t>2025/12/27</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.70</t>
+          <t>16.76</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/27</t>
+          <t>2025/12/28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/27</t>
+          <t>2025/12/28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/27</t>
+          <t>2025/12/28</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/27</t>
+          <t>2025/12/28</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/27</t>
+          <t>2025/12/28</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/27</t>
+          <t>2025/12/28</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/27</t>
+          <t>2025/12/28</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/27</t>
+          <t>2025/12/28</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2672,7 +2672,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/27</t>
+          <t>2025/12/28</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2960,7 +2960,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/27</t>
+          <t>2025/12/28</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3212,7 +3212,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/27</t>
+          <t>2025/12/28</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3452,7 +3452,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/27</t>
+          <t>2025/12/28</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3740,7 +3740,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/27</t>
+          <t>2025/12/28</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/28</t>
+          <t>2025/12/29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/28</t>
+          <t>2025/12/29</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/28</t>
+          <t>2025/12/29</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/28</t>
+          <t>2025/12/29</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/28</t>
+          <t>2025/12/29</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/28</t>
+          <t>2025/12/29</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/28</t>
+          <t>2025/12/29</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/28</t>
+          <t>2025/12/29</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2672,7 +2672,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/28</t>
+          <t>2025/12/29</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2960,7 +2960,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/28</t>
+          <t>2025/12/29</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3212,7 +3212,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/28</t>
+          <t>2025/12/29</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3452,7 +3452,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/28</t>
+          <t>2025/12/29</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3740,7 +3740,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/28</t>
+          <t>2025/12/29</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/29</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/29</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/29</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/29</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/29</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11.30</t>
+          <t>11.32</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/29</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27.86</t>
+          <t>27.62</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/29</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/29</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.20</t>
+          <t>11.15</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/29</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.57</t>
+          <t>11.49</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/29</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>32.38</t>
+          <t>31.82</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/29</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.76</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/29</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.17</t>
+          <t>13.03</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/29</t>
+          <t>2025/12/30</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.76</t>
+          <t>16.66</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2025/12/31</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2025/12/31</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2025/12/31</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2025/12/31</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>12.79</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2025/12/31</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11.32</t>
+          <t>11.33</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2025/12/31</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27.62</t>
+          <t>27.46</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2025/12/31</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2025/12/31</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.15</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2025/12/31</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.49</t>
+          <t>11.29</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2025/12/31</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>31.82</t>
+          <t>31.40</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2025/12/31</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>11.55</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2025/12/31</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.03</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/30</t>
+          <t>2025/12/31</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.66</t>
+          <t>16.58</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/12/31</t>
+          <t>2026/01/01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/12/31</t>
+          <t>2026/01/01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/12/31</t>
+          <t>2026/01/01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/12/31</t>
+          <t>2026/01/01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.79</t>
+          <t>12.69</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/12/31</t>
+          <t>2026/01/01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11.33</t>
+          <t>11.13</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/12/31</t>
+          <t>2026/01/01</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27.46</t>
+          <t>27.27</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/12/31</t>
+          <t>2026/01/01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/12/31</t>
+          <t>2026/01/01</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>10.96</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/12/31</t>
+          <t>2026/01/01</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.29</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/12/31</t>
+          <t>2026/01/01</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>31.40</t>
+          <t>31.03</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/12/31</t>
+          <t>2026/01/01</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.55</t>
+          <t>11.39</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/12/31</t>
+          <t>2026/01/01</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>12.62</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/12/31</t>
+          <t>2026/01/01</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.58</t>
+          <t>16.43</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026/01/01</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026/01/01</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026/01/01</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026/01/01</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026/01/01</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026/01/01</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026/01/01</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026/01/01</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2672,7 +2672,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026/01/01</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2960,7 +2960,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026/01/01</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3212,7 +3212,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026/01/01</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3452,7 +3452,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026/01/01</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3740,7 +3740,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026/01/01</t>
+          <t>2026/01/02</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/03</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/03</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/03</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.69</t>
+          <t>12.97</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/03</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11.13</t>
+          <t>11.47</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/03</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27.27</t>
+          <t>27.59</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/03</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/03</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>11.63</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/03</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>11.35</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/03</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>31.03</t>
+          <t>31.65</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/03</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.39</t>
+          <t>11.96</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/03</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12.62</t>
+          <t>13.24</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026/01/02</t>
+          <t>2026/01/03</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.43</t>
+          <t>17.07</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026/01/03</t>
+          <t>2026/01/04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026/01/03</t>
+          <t>2026/01/04</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026/01/03</t>
+          <t>2026/01/04</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026/01/03</t>
+          <t>2026/01/04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026/01/03</t>
+          <t>2026/01/04</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026/01/03</t>
+          <t>2026/01/04</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026/01/03</t>
+          <t>2026/01/04</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026/01/03</t>
+          <t>2026/01/04</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2672,7 +2672,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026/01/03</t>
+          <t>2026/01/04</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2960,7 +2960,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026/01/03</t>
+          <t>2026/01/04</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3212,7 +3212,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026/01/03</t>
+          <t>2026/01/04</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3452,7 +3452,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026/01/03</t>
+          <t>2026/01/04</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3740,7 +3740,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026/01/03</t>
+          <t>2026/01/04</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026/01/04</t>
+          <t>2026/01/05</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026/01/04</t>
+          <t>2026/01/05</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026/01/04</t>
+          <t>2026/01/05</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026/01/04</t>
+          <t>2026/01/05</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026/01/04</t>
+          <t>2026/01/05</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026/01/04</t>
+          <t>2026/01/05</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026/01/04</t>
+          <t>2026/01/05</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026/01/04</t>
+          <t>2026/01/05</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2672,7 +2672,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026/01/04</t>
+          <t>2026/01/05</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2960,7 +2960,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026/01/04</t>
+          <t>2026/01/05</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3212,7 +3212,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026/01/04</t>
+          <t>2026/01/05</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3452,7 +3452,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026/01/04</t>
+          <t>2026/01/05</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3740,7 +3740,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026/01/04</t>
+          <t>2026/01/05</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026/01/05</t>
+          <t>2026/01/06</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026/01/05</t>
+          <t>2026/01/06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026/01/05</t>
+          <t>2026/01/06</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026/01/05</t>
+          <t>2026/01/06</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.97</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026/01/05</t>
+          <t>2026/01/06</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11.47</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026/01/05</t>
+          <t>2026/01/06</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27.59</t>
+          <t>27.76</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026/01/05</t>
+          <t>2026/01/06</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026/01/05</t>
+          <t>2026/01/06</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11.63</t>
+          <t>12.41</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026/01/05</t>
+          <t>2026/01/06</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.35</t>
+          <t>11.44</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026/01/05</t>
+          <t>2026/01/06</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>31.65</t>
+          <t>30.78</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026/01/05</t>
+          <t>2026/01/06</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.96</t>
+          <t>11.17</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026/01/05</t>
+          <t>2026/01/06</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.24</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026/01/05</t>
+          <t>2026/01/06</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>17.07</t>
+          <t>17.67</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026/01/06</t>
+          <t>2026/01/07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026/01/06</t>
+          <t>2026/01/07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026/01/06</t>
+          <t>2026/01/07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026/01/06</t>
+          <t>2026/01/07</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>13.13</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026/01/06</t>
+          <t>2026/01/07</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>11.59</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026/01/06</t>
+          <t>2026/01/07</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27.76</t>
+          <t>27.89</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026/01/06</t>
+          <t>2026/01/07</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026/01/06</t>
+          <t>2026/01/07</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>12.41</t>
+          <t>13.11</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026/01/06</t>
+          <t>2026/01/07</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.44</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026/01/06</t>
+          <t>2026/01/07</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>30.78</t>
+          <t>31.99</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026/01/06</t>
+          <t>2026/01/07</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.17</t>
+          <t>11.22</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026/01/06</t>
+          <t>2026/01/07</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>12.93</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026/01/06</t>
+          <t>2026/01/07</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>17.67</t>
+          <t>18.22</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026/01/07</t>
+          <t>2026/01/08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026/01/07</t>
+          <t>2026/01/08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026/01/07</t>
+          <t>2026/01/08</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026/01/07</t>
+          <t>2026/01/08</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13.13</t>
+          <t>13.14</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026/01/07</t>
+          <t>2026/01/08</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11.59</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026/01/07</t>
+          <t>2026/01/08</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27.89</t>
+          <t>27.98</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026/01/07</t>
+          <t>2026/01/08</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026/01/07</t>
+          <t>2026/01/08</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>13.11</t>
+          <t>13.68</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026/01/07</t>
+          <t>2026/01/08</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>11.53</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026/01/07</t>
+          <t>2026/01/08</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>31.99</t>
+          <t>32.10</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,7 +3212,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026/01/07</t>
+          <t>2026/01/08</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026/01/07</t>
+          <t>2026/01/08</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12.93</t>
+          <t>12.80</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026/01/07</t>
+          <t>2026/01/08</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>18.22</t>
+          <t>18.20</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026/01/08</t>
+          <t>2026/01/09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026/01/08</t>
+          <t>2026/01/09</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026/01/08</t>
+          <t>2026/01/09</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026/01/08</t>
+          <t>2026/01/09</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13.14</t>
+          <t>13.45</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026/01/08</t>
+          <t>2026/01/09</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>11.61</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026/01/08</t>
+          <t>2026/01/09</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27.98</t>
+          <t>28.51</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026/01/08</t>
+          <t>2026/01/09</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026/01/08</t>
+          <t>2026/01/09</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>13.68</t>
+          <t>13.39</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026/01/08</t>
+          <t>2026/01/09</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.53</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026/01/08</t>
+          <t>2026/01/09</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>32.10</t>
+          <t>30.23</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026/01/08</t>
+          <t>2026/01/09</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.22</t>
+          <t>11.10</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026/01/08</t>
+          <t>2026/01/09</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12.80</t>
+          <t>12.61</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026/01/08</t>
+          <t>2026/01/09</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>18.20</t>
+          <t>17.88</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026/01/09</t>
+          <t>2026/01/10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026/01/09</t>
+          <t>2026/01/10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.78</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026/01/09</t>
+          <t>2026/01/10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026/01/09</t>
+          <t>2026/01/10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13.45</t>
+          <t>13.49</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026/01/09</t>
+          <t>2026/01/10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11.61</t>
+          <t>11.64</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026/01/09</t>
+          <t>2026/01/10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>28.51</t>
+          <t>28.91</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026/01/09</t>
+          <t>2026/01/10</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026/01/09</t>
+          <t>2026/01/10</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>13.39</t>
+          <t>13.94</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026/01/09</t>
+          <t>2026/01/10</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>11.64</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026/01/09</t>
+          <t>2026/01/10</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>30.23</t>
+          <t>31.69</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026/01/09</t>
+          <t>2026/01/10</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.10</t>
+          <t>11.30</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026/01/09</t>
+          <t>2026/01/10</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12.61</t>
+          <t>12.82</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026/01/09</t>
+          <t>2026/01/10</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>17.88</t>
+          <t>18.41</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026/01/10</t>
+          <t>2026/01/11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026/01/10</t>
+          <t>2026/01/11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026/01/10</t>
+          <t>2026/01/11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026/01/10</t>
+          <t>2026/01/11</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026/01/10</t>
+          <t>2026/01/11</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026/01/10</t>
+          <t>2026/01/11</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026/01/10</t>
+          <t>2026/01/11</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026/01/10</t>
+          <t>2026/01/11</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2672,7 +2672,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026/01/10</t>
+          <t>2026/01/11</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2960,7 +2960,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026/01/10</t>
+          <t>2026/01/11</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026/01/10</t>
+          <t>2026/01/11</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.30</t>
+          <t>11.25</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,7 +3452,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026/01/10</t>
+          <t>2026/01/11</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3740,7 +3740,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026/01/10</t>
+          <t>2026/01/11</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026/01/11</t>
+          <t>2026/01/12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026/01/11</t>
+          <t>2026/01/12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026/01/11</t>
+          <t>2026/01/12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026/01/11</t>
+          <t>2026/01/12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026/01/11</t>
+          <t>2026/01/12</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026/01/11</t>
+          <t>2026/01/12</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026/01/11</t>
+          <t>2026/01/12</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026/01/11</t>
+          <t>2026/01/12</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2672,7 +2672,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026/01/11</t>
+          <t>2026/01/12</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2960,7 +2960,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026/01/11</t>
+          <t>2026/01/12</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3212,7 +3212,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026/01/11</t>
+          <t>2026/01/12</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3452,7 +3452,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026/01/11</t>
+          <t>2026/01/12</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3740,7 +3740,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026/01/11</t>
+          <t>2026/01/12</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026/01/12</t>
+          <t>2026/01/13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026/01/12</t>
+          <t>2026/01/13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>8.62</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026/01/12</t>
+          <t>2026/01/13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026/01/12</t>
+          <t>2026/01/13</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13.49</t>
+          <t>13.54</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026/01/12</t>
+          <t>2026/01/13</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11.64</t>
+          <t>11.87</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026/01/12</t>
+          <t>2026/01/13</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>28.91</t>
+          <t>28.95</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026/01/12</t>
+          <t>2026/01/13</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026/01/12</t>
+          <t>2026/01/13</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>13.94</t>
+          <t>14.32</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026/01/12</t>
+          <t>2026/01/13</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.64</t>
+          <t>11.87</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026/01/12</t>
+          <t>2026/01/13</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>31.69</t>
+          <t>32.96</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,17 +3212,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026/01/12</t>
+          <t>2026/01/13</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.25</t>
+          <t>11.46</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026/01/12</t>
+          <t>2026/01/13</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12.82</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026/01/12</t>
+          <t>2026/01/13</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>18.41</t>
+          <t>18.40</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026/01/13</t>
+          <t>2026/01/14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026/01/13</t>
+          <t>2026/01/14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.62</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026/01/13</t>
+          <t>2026/01/14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026/01/13</t>
+          <t>2026/01/14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13.54</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026/01/13</t>
+          <t>2026/01/14</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11.87</t>
+          <t>11.84</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026/01/13</t>
+          <t>2026/01/14</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>28.95</t>
+          <t>28.92</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026/01/13</t>
+          <t>2026/01/14</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026/01/13</t>
+          <t>2026/01/14</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>14.32</t>
+          <t>15.07</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026/01/13</t>
+          <t>2026/01/14</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.87</t>
+          <t>12.29</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026/01/13</t>
+          <t>2026/01/14</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>32.96</t>
+          <t>34.31</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026/01/13</t>
+          <t>2026/01/14</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.46</t>
+          <t>11.81</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026/01/13</t>
+          <t>2026/01/14</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026/01/13</t>
+          <t>2026/01/14</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>18.40</t>
+          <t>18.96</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026/01/14</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>8.07</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026/01/14</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026/01/14</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026/01/14</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>13.76</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026/01/14</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11.84</t>
+          <t>11.92</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026/01/14</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>28.92</t>
+          <t>29.24</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026/01/14</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026/01/14</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>15.07</t>
+          <t>16.25</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026/01/14</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12.29</t>
+          <t>12.39</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026/01/14</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>34.31</t>
+          <t>32.47</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026/01/14</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.81</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026/01/14</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>13.27</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026/01/14</t>
+          <t>2026/01/15</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>18.96</t>
+          <t>18.73</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8.07</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/16</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13.76</t>
+          <t>14.04</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/16</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11.92</t>
+          <t>12.14</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/16</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>29.24</t>
+          <t>29.75</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/16</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/16</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16.25</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/16</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12.39</t>
+          <t>12.76</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/16</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>32.47</t>
+          <t>32.80</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/16</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/16</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.27</t>
+          <t>13.80</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026/01/15</t>
+          <t>2026/01/16</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>18.73</t>
+          <t>19.86</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026/01/16</t>
+          <t>2026/01/17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026/01/16</t>
+          <t>2026/01/17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026/01/16</t>
+          <t>2026/01/17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026/01/16</t>
+          <t>2026/01/17</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>14.04</t>
+          <t>14.10</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026/01/16</t>
+          <t>2026/01/17</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>12.14</t>
+          <t>11.96</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026/01/16</t>
+          <t>2026/01/17</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>29.75</t>
+          <t>29.18</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026/01/16</t>
+          <t>2026/01/17</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026/01/16</t>
+          <t>2026/01/17</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>17.13</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026/01/16</t>
+          <t>2026/01/17</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12.76</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026/01/16</t>
+          <t>2026/01/17</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>32.80</t>
+          <t>32.82</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026/01/16</t>
+          <t>2026/01/17</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>12.41</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026/01/16</t>
+          <t>2026/01/17</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.80</t>
+          <t>13.46</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026/01/16</t>
+          <t>2026/01/17</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>19.86</t>
+          <t>19.76</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026/01/17</t>
+          <t>2026/01/18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026/01/17</t>
+          <t>2026/01/18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026/01/17</t>
+          <t>2026/01/18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026/01/17</t>
+          <t>2026/01/18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026/01/17</t>
+          <t>2026/01/18</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026/01/17</t>
+          <t>2026/01/18</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026/01/17</t>
+          <t>2026/01/18</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026/01/17</t>
+          <t>2026/01/18</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2672,7 +2672,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026/01/17</t>
+          <t>2026/01/18</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2960,7 +2960,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026/01/17</t>
+          <t>2026/01/18</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3212,7 +3212,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026/01/17</t>
+          <t>2026/01/18</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3452,7 +3452,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026/01/17</t>
+          <t>2026/01/18</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3740,7 +3740,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026/01/17</t>
+          <t>2026/01/18</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026/01/18</t>
+          <t>2026/01/19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026/01/18</t>
+          <t>2026/01/19</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026/01/18</t>
+          <t>2026/01/19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026/01/18</t>
+          <t>2026/01/19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026/01/18</t>
+          <t>2026/01/19</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026/01/18</t>
+          <t>2026/01/19</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026/01/18</t>
+          <t>2026/01/19</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026/01/18</t>
+          <t>2026/01/19</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2672,7 +2672,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026/01/18</t>
+          <t>2026/01/19</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2960,7 +2960,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026/01/18</t>
+          <t>2026/01/19</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3212,7 +3212,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026/01/18</t>
+          <t>2026/01/19</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3452,7 +3452,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026/01/18</t>
+          <t>2026/01/19</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3740,7 +3740,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026/01/18</t>
+          <t>2026/01/19</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026/01/19</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026/01/19</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>8.88</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026/01/19</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026/01/19</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026/01/19</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026/01/19</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026/01/19</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026/01/19</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2672,7 +2672,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026/01/19</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026/01/19</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>32.82</t>
+          <t>32.76</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,7 +3212,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026/01/19</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3452,7 +3452,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026/01/19</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3740,7 +3740,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026/01/19</t>
+          <t>2026/01/20</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">

--- a/Stock_Risk_Scores.xlsx
+++ b/Stock_Risk_Scores.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1064,12 +1064,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/21</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/21</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>14.10</t>
+          <t>14.03</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1640,12 +1640,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/21</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11.96</t>
+          <t>11.92</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,12 +1928,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/21</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>29.18</t>
+          <t>29.21</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/21</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2384,12 +2384,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/21</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>17.13</t>
+          <t>17.31</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/21</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12.75</t>
+          <t>12.77</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/21</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>32.76</t>
+          <t>32.50</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3212,12 +3212,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/21</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>12.41</t>
+          <t>12.20</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/21</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.46</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026/01/20</t>
+          <t>2026/01/21</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>19.76</t>
+          <t>20.27</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
